--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -135,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -263,12 +263,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,6 +372,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2366,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,7 +2389,7 @@
     <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
@@ -2394,7 +2406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -2404,12 +2416,12 @@
       <c r="C2" s="32">
         <v>0</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="34">
         <v>0.13700000000000001</v>
       </c>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>10</v>
       </c>
@@ -2419,12 +2431,12 @@
       <c r="C3" s="32">
         <v>0.68</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="32">
         <v>0.13700000000000001</v>
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>20</v>
       </c>
@@ -2434,12 +2446,12 @@
       <c r="C4" s="32">
         <v>0.68</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="32">
         <v>0.13700000000000001</v>
       </c>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>30</v>
       </c>
@@ -2449,12 +2461,12 @@
       <c r="C5" s="32">
         <v>0.68</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="32">
         <v>0.13700000000000001</v>
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>40</v>
       </c>
@@ -2464,12 +2476,12 @@
       <c r="C6" s="32">
         <v>0.68</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <v>0.13700000000000001</v>
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>50</v>
       </c>
@@ -2479,15 +2491,12 @@
       <c r="C7" s="32">
         <v>0.68</v>
       </c>
-      <c r="D7" s="33">
-        <v>0.13700000000000001</v>
+      <c r="D7" s="32">
+        <v>0.32800000000000001</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="H7" s="32">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>75</v>
       </c>
@@ -2497,15 +2506,12 @@
       <c r="C8" s="32">
         <v>0.68</v>
       </c>
-      <c r="D8" s="33">
-        <v>0.13700000000000001</v>
+      <c r="D8" s="32">
+        <v>0.32800000000000001</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="H8" s="32">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>78</v>
       </c>
@@ -2515,15 +2521,12 @@
       <c r="C9" s="32">
         <v>0.68</v>
       </c>
-      <c r="D9" s="33">
-        <v>0.13700000000000001</v>
+      <c r="D9" s="32">
+        <v>0.32800000000000001</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="H9" s="32">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>83</v>
       </c>
@@ -2533,15 +2536,12 @@
       <c r="C10" s="32">
         <v>0.68</v>
       </c>
-      <c r="D10" s="33">
-        <v>0.13700000000000001</v>
+      <c r="D10" s="32">
+        <v>0.52500000000000002</v>
       </c>
       <c r="E10" s="24"/>
-      <c r="H10" s="32">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>90</v>
       </c>
@@ -2551,15 +2551,12 @@
       <c r="C11" s="32">
         <v>0.68</v>
       </c>
-      <c r="D11" s="33">
-        <v>0.13700000000000001</v>
+      <c r="D11" s="32">
+        <v>0.3</v>
       </c>
       <c r="E11" s="24"/>
-      <c r="H11" s="32">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>100</v>
       </c>
@@ -2573,15 +2570,13 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="E12" s="25"/>
-      <c r="H12" s="33">
-        <v>0.13700000000000001</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,32 +5,58 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arge_\Desktop\Projeler\VASTAS-X\Control Valve Sizing(velocity added)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arge_\Desktop\Projeler\Kontrol Vanasi Analizleri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Valve List" sheetId="1" r:id="rId1"/>
-    <sheet name="Valve_2.0_600_3" sheetId="2" r:id="rId2"/>
-    <sheet name="Valve_0.5_150_3" sheetId="3" r:id="rId3"/>
-    <sheet name="Valve_1.0_600_3" sheetId="4" r:id="rId4"/>
-    <sheet name="Valve_4.0_600_3" sheetId="5" r:id="rId5"/>
-    <sheet name="Valve_8.0_600_3" sheetId="6" r:id="rId6"/>
-    <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId7"/>
-    <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId8"/>
-    <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId9"/>
-    <sheet name="Valve_30.0_600_3" sheetId="10" r:id="rId10"/>
-    <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId11"/>
-    <sheet name="Valve_2.0_1500_3" sheetId="12" r:id="rId12"/>
+    <sheet name="Valve_2.0_600_3 (2)" sheetId="13" r:id="rId1"/>
+    <sheet name="Valve_3.0_600_3" sheetId="14" r:id="rId2"/>
+    <sheet name="Valve_4.0_600_3 (2)" sheetId="15" r:id="rId3"/>
+    <sheet name="Valve_6.0_600_3" sheetId="16" r:id="rId4"/>
+    <sheet name="Valve_8.0_600_3 (2)" sheetId="17" r:id="rId5"/>
+    <sheet name="Valve_10.0_600_3" sheetId="18" r:id="rId6"/>
+    <sheet name="Valve_12.0_600_3 (2)" sheetId="19" r:id="rId7"/>
+    <sheet name="Valve_16.0_600_3 (2)" sheetId="20" r:id="rId8"/>
+    <sheet name="Valve_20.0_600_3 (2)" sheetId="21" r:id="rId9"/>
+    <sheet name="Valve_2.0_600_4" sheetId="22" r:id="rId10"/>
+    <sheet name="Valve_3.0_600_4" sheetId="23" r:id="rId11"/>
+    <sheet name="Valve_4.0_600_4" sheetId="24" r:id="rId12"/>
+    <sheet name="Valve_6.0_600_4" sheetId="25" r:id="rId13"/>
+    <sheet name="Valve_8.0_600_4 (2)" sheetId="26" r:id="rId14"/>
+    <sheet name="Valve_10.0_600_4" sheetId="27" r:id="rId15"/>
+    <sheet name="Valve_12.0_600_4" sheetId="28" r:id="rId16"/>
+    <sheet name="Valve_14.0_600_4" sheetId="29" r:id="rId17"/>
+    <sheet name="Valve_16.0_600_4" sheetId="30" r:id="rId18"/>
+    <sheet name="Valve_18.0_600_4" sheetId="31" r:id="rId19"/>
+    <sheet name="Valve_20.0_600_4" sheetId="32" r:id="rId20"/>
+    <sheet name="Valve_24.0_600_4" sheetId="33" r:id="rId21"/>
+    <sheet name="Valve_28.0_600_4" sheetId="34" r:id="rId22"/>
+    <sheet name="Valve_30.0_600_4" sheetId="35" r:id="rId23"/>
+    <sheet name="Valve_32.0_600_4" sheetId="36" r:id="rId24"/>
+    <sheet name="Valve_36.0_600_4" sheetId="37" r:id="rId25"/>
+    <sheet name="Valve_40.0_600_4" sheetId="38" r:id="rId26"/>
+    <sheet name="Valve List" sheetId="1" r:id="rId27"/>
+    <sheet name="Valve_2.0_600_3" sheetId="2" r:id="rId28"/>
+    <sheet name="Valve_0.5_150_3" sheetId="3" r:id="rId29"/>
+    <sheet name="Valve_1.0_600_3" sheetId="4" r:id="rId30"/>
+    <sheet name="Valve_4.0_600_3" sheetId="5" r:id="rId31"/>
+    <sheet name="Valve_8.0_600_3" sheetId="6" r:id="rId32"/>
+    <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId33"/>
+    <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId34"/>
+    <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId35"/>
+    <sheet name="Valve_30.0_600_3" sheetId="10" r:id="rId36"/>
+    <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId37"/>
+    <sheet name="Valve_2.0_1500_3" sheetId="12" r:id="rId38"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="22">
   <si>
     <t>size</t>
   </si>
@@ -105,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +151,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -277,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,6 +409,39 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,10 +746,3869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>10</v>
+      </c>
+      <c r="B3" s="37">
+        <v>13.31202233912504</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.28622500000000001</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>20</v>
+      </c>
+      <c r="B4" s="38">
+        <v>32.692258744082537</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.42902500000000005</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>30</v>
+      </c>
+      <c r="B5" s="37">
+        <v>35.413745781315342</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.62</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>40</v>
+      </c>
+      <c r="B6" s="37">
+        <v>38.501103306692336</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>50</v>
+      </c>
+      <c r="B7" s="37">
+        <v>42.26830779705768</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.5625</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>60</v>
+      </c>
+      <c r="B8" s="37">
+        <v>43.230829971221965</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.5625</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>70</v>
+      </c>
+      <c r="B9" s="37">
+        <v>44.654446769820602</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.51122499999999993</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>80</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44.719984309519162</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.51839999999999997</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.72</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>90</v>
+      </c>
+      <c r="B11" s="37">
+        <v>46.670236841657392</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.40195600000000004</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>100</v>
+      </c>
+      <c r="B12" s="39">
+        <v>48.040070456780072</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0.403225</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>18.986232644492688</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>44.383454121572619</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>142.05858314674643</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>260.93930660910786</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>457.75779764190349</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>777.14975431228527</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>984.39348661726467</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1115.0442453350299</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>1145.7583178945802</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>18.986232644492688</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>44.383454121572619</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>142.05858314674643</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>260.93930660910786</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>457.75779764190349</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>777.14975431228527</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>984.39348661726467</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1115.0442453350299</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>1145.7583178945802</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>18.986232644492688</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>44.383454121572619</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>142.05858314674643</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>260.93930660910786</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>457.75779764190349</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>777.14975431228527</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>984.39348661726467</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1115.0442453350299</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>1145.7583178945802</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>18.986232644492688</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>44.383454121572619</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>142.05858314674643</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>260.93930660910786</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>457.75779764190349</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>777.14975431228527</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>984.39348661726467</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1115.0442453350299</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>1145.7583178945802</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>18.986232644492688</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>44.383454121572619</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>142.05858314674643</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>260.93930660910786</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>457.75779764190349</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>777.14975431228527</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>984.39348661726467</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1115.0442453350299</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>1145.7583178945802</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>234.8375415557019</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>313.11672207426921</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>417.48896276569224</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>556.65195035425631</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>742.20260047234171</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>989.60346729645562</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1319.4712897286074</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1759.2950529714765</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>2345.726737295302</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>288.44974223739052</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>384.59965631652068</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>512.79954175536091</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>683.73272234048125</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>911.64362978730833</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1215.5248397164112</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1620.6997862885482</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>2160.9330483847311</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>2881.244064512975</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>333.65701320708223</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>444.87601760944295</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>593.16802347925727</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>790.8906979723431</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1054.5209306297909</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1406.0279075063879</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1874.7038766751839</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>2499.6051689002452</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>3332.8068918669933</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>240.43844084045631</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>343.4834869149376</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>490.69069559276801</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>700.98670798966862</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1001.4095828423838</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1430.5851183462626</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>2043.6930262089468</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>2919.5614660127812</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>4170.8020943039737</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>574.85197006351962</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>766.46929341802615</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1021.9590578907016</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1362.6120771876022</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1816.8161029168027</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>2422.421470555737</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>3229.8952940743156</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>4306.5270587657542</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>5742.0360783543383</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>10</v>
+      </c>
+      <c r="B3" s="37">
+        <v>34.430616282164827</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>20</v>
+      </c>
+      <c r="B4" s="38">
+        <v>39.575421013982563</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>30</v>
+      </c>
+      <c r="B5" s="37">
+        <v>45.488989671244326</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>40</v>
+      </c>
+      <c r="B6" s="37">
+        <v>52.286195024418767</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>50</v>
+      </c>
+      <c r="B7" s="37">
+        <v>20.033024913570408</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>60</v>
+      </c>
+      <c r="B8" s="37">
+        <v>69.079396253691058</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>70</v>
+      </c>
+      <c r="B9" s="37">
+        <v>79.40160488930006</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>80</v>
+      </c>
+      <c r="B10" s="37">
+        <v>91.266212516436852</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>90</v>
+      </c>
+      <c r="B11" s="37">
+        <v>104.90369254762857</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>100</v>
+      </c>
+      <c r="B12" s="39">
+        <v>120.5789569512972</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>715.67692875486136</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>954.23590500648174</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1272.3145400086423</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1696.4193866781898</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>2261.8925155709198</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>3015.8566874278931</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>4021.1422499038572</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>5361.5229998718096</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>7148.6973331624131</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>582.09010503357501</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>831.55729290510715</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1187.9389898644388</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1697.0556998063412</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>2424.3652854376305</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>3463.3789791966155</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>4947.6842559951656</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>7068.1203657073793</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>10097.3148081534</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>772.22910731991828</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1103.1844390284548</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1575.9777700406498</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>2251.3968143437855</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>3216.2811633482652</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>4594.6873762118075</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>6563.8391088740118</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>9376.9130126771597</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>13395.590018110228</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>858.94114486738749</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1227.0587783819822</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1752.9411119742604</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>2504.2015885346577</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>3577.4308407637968</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>5110.6154868054246</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>7300.879266864893</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>10429.827524092705</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>14899.753605846723</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>965.52863727154875</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1379.3266246736412</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1970.4666066766304</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>2814.9522952523293</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>4021.3604217890424</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>5744.8006025557752</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>8206.8580036511084</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>11724.082862358726</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>16748.689803369609</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>1267.1728209115151</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1810.2468870164503</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>2586.066981452072</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>3694.3814020743889</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>5277.6877172491277</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>7539.553881784469</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>10770.7912596921</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>15386.844656703001</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>21981.206652432858</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44">
+        <v>1447.4055946621702</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="44">
+        <v>2067.7222780888146</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="44">
+        <v>2953.8889686983071</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="44">
+        <v>4219.8413838547249</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44">
+        <v>6028.3448340781788</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="44">
+        <v>8611.9211915402557</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="44">
+        <v>12302.744559343222</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="44">
+        <v>17575.349370490319</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="45">
+        <v>25107.641957843316</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,614 +4878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16">
-        <v>3.28</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>20</v>
-      </c>
-      <c r="B4" s="16">
-        <v>7.39</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>30</v>
-      </c>
-      <c r="B5" s="16">
-        <v>12</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>40</v>
-      </c>
-      <c r="B6" s="16">
-        <v>14.2</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>50</v>
-      </c>
-      <c r="B7" s="16">
-        <v>14.9</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.79</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>60</v>
-      </c>
-      <c r="B8" s="16">
-        <v>15.3</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>70</v>
-      </c>
-      <c r="B9" s="16">
-        <v>15.7</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>80</v>
-      </c>
-      <c r="B10" s="16">
-        <v>16</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>90</v>
-      </c>
-      <c r="B11" s="16">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
-        <v>100</v>
-      </c>
-      <c r="B12" s="19">
-        <v>16.8</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.68</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="25"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>25</v>
-      </c>
-      <c r="B4" s="28">
-        <v>18.986232644492688</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0.36</v>
-      </c>
-      <c r="D4" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
-        <v>30</v>
-      </c>
-      <c r="B5" s="28">
-        <v>44.383454121572619</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0.38651089000000005</v>
-      </c>
-      <c r="D5" s="28">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>40</v>
-      </c>
-      <c r="B6" s="28">
-        <v>142.05858314674643</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0.38254225000000008</v>
-      </c>
-      <c r="D6" s="28">
-        <v>0.61850000000000005</v>
-      </c>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>50</v>
-      </c>
-      <c r="B7" s="28">
-        <v>260.93930660910786</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0.35164899999999999</v>
-      </c>
-      <c r="D7" s="28">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>60</v>
-      </c>
-      <c r="B8" s="28">
-        <v>457.75779764190349</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0.33524099999999996</v>
-      </c>
-      <c r="D8" s="28">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>70</v>
-      </c>
-      <c r="B9" s="28">
-        <v>777.14975431228527</v>
-      </c>
-      <c r="C9" s="28">
-        <v>0.26936100000000002</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>80</v>
-      </c>
-      <c r="B10" s="28">
-        <v>984.39348661726467</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0.28462224999999997</v>
-      </c>
-      <c r="D10" s="28">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>90</v>
-      </c>
-      <c r="B11" s="28">
-        <v>1115.0442453350299</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0.33639999999999998</v>
-      </c>
-      <c r="D11" s="28">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
-        <v>100</v>
-      </c>
-      <c r="B12" s="29">
-        <v>1145.7583178945802</v>
-      </c>
-      <c r="C12" s="29">
-        <v>0.37209999999999999</v>
-      </c>
-      <c r="D12" s="29">
-        <v>0.61</v>
-      </c>
-      <c r="E12" s="27"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16">
-        <v>5</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16">
-        <v>10</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>20</v>
-      </c>
-      <c r="B4" s="16">
-        <v>15</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>30</v>
-      </c>
-      <c r="B5" s="16">
-        <v>20</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>40</v>
-      </c>
-      <c r="B6" s="16">
-        <v>25</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>50</v>
-      </c>
-      <c r="B7" s="16">
-        <v>30</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.79</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>60</v>
-      </c>
-      <c r="B8" s="16">
-        <v>35</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>70</v>
-      </c>
-      <c r="B9" s="16">
-        <v>40</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>80</v>
-      </c>
-      <c r="B10" s="16">
-        <v>45</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>90</v>
-      </c>
-      <c r="B11" s="16">
-        <v>50</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
-        <v>100</v>
-      </c>
-      <c r="B12" s="19">
-        <v>60</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.68</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0.74</v>
-      </c>
-      <c r="E12" s="25"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1765,7 +5083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1969,7 +5287,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>10</v>
+      </c>
+      <c r="B3" s="37">
+        <v>38.043017182577891</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.31360000000000005</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>20</v>
+      </c>
+      <c r="B4" s="37">
+        <v>80.246766739175129</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.35402499999999998</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>30</v>
+      </c>
+      <c r="B5" s="37">
+        <v>118.19476772685371</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.61</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>40</v>
+      </c>
+      <c r="B6" s="37">
+        <v>139.21847882617462</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>50</v>
+      </c>
+      <c r="B7" s="37">
+        <v>155.26096587806657</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.53289999999999993</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.73</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>60</v>
+      </c>
+      <c r="B8" s="37">
+        <v>156.95350477559671</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.5776</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.76</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>70</v>
+      </c>
+      <c r="B9" s="37">
+        <v>169.70553538262996</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0.53289999999999993</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.73</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>80</v>
+      </c>
+      <c r="B10" s="37">
+        <v>171.43697025221709</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.47609999999999991</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>90</v>
+      </c>
+      <c r="B11" s="37">
+        <v>176.87229528170275</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.48163599999999995</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
+        <v>100</v>
+      </c>
+      <c r="B12" s="39">
+        <v>182.5517650824853</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2173,7 +5694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2376,12 +5897,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,7 +6101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2783,7 +6304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2984,7 +6505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3183,4 +6704,1829 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16">
+        <v>3.28</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16">
+        <v>7.39</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16">
+        <v>12</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>40</v>
+      </c>
+      <c r="B6" s="16">
+        <v>14.2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>50</v>
+      </c>
+      <c r="B7" s="16">
+        <v>14.9</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>60</v>
+      </c>
+      <c r="B8" s="16">
+        <v>15.3</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>70</v>
+      </c>
+      <c r="B9" s="16">
+        <v>15.7</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>80</v>
+      </c>
+      <c r="B10" s="16">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>90</v>
+      </c>
+      <c r="B11" s="16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>100</v>
+      </c>
+      <c r="B12" s="19">
+        <v>16.8</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>10</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>25</v>
+      </c>
+      <c r="B4" s="28">
+        <v>18.986232644492688</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>30</v>
+      </c>
+      <c r="B5" s="28">
+        <v>44.383454121572619</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40</v>
+      </c>
+      <c r="B6" s="28">
+        <v>142.05858314674643</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>50</v>
+      </c>
+      <c r="B7" s="28">
+        <v>260.93930660910786</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>60</v>
+      </c>
+      <c r="B8" s="28">
+        <v>457.75779764190349</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>70</v>
+      </c>
+      <c r="B9" s="28">
+        <v>777.14975431228527</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>80</v>
+      </c>
+      <c r="B10" s="28">
+        <v>984.39348661726467</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>90</v>
+      </c>
+      <c r="B11" s="28">
+        <v>1115.0442453350299</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>100</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1145.7583178945802</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>40</v>
+      </c>
+      <c r="B6" s="16">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>50</v>
+      </c>
+      <c r="B7" s="16">
+        <v>30</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>60</v>
+      </c>
+      <c r="B8" s="16">
+        <v>35</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>70</v>
+      </c>
+      <c r="B9" s="16">
+        <v>40</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>80</v>
+      </c>
+      <c r="B10" s="16">
+        <v>45</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>90</v>
+      </c>
+      <c r="B11" s="16">
+        <v>50</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>100</v>
+      </c>
+      <c r="B12" s="19">
+        <v>60</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>10</v>
+      </c>
+      <c r="B3" s="37">
+        <v>110.55713754770203</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>20</v>
+      </c>
+      <c r="B4" s="37">
+        <v>127.0771695950598</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>30</v>
+      </c>
+      <c r="B5" s="37">
+        <v>146.06571217822966</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>40</v>
+      </c>
+      <c r="B6" s="37">
+        <v>167.89162319336742</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>50</v>
+      </c>
+      <c r="B7" s="37">
+        <v>192.97887723375567</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>60</v>
+      </c>
+      <c r="B8" s="37">
+        <v>221.81480141810997</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>70</v>
+      </c>
+      <c r="B9" s="37">
+        <v>254.95954185989652</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>80</v>
+      </c>
+      <c r="B10" s="37">
+        <v>293.05694466654774</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>90</v>
+      </c>
+      <c r="B11" s="37">
+        <v>336.84706283511235</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
+        <v>100</v>
+      </c>
+      <c r="B12" s="39">
+        <v>387.18053199438202</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16">
+        <v>177.82355586572021</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16">
+        <v>209.20418337143556</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16">
+        <v>246.12256867227714</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>40</v>
+      </c>
+      <c r="B6" s="16">
+        <v>289.55596314385548</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>50</v>
+      </c>
+      <c r="B7" s="16">
+        <v>340.65407428688883</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>60</v>
+      </c>
+      <c r="B8" s="16">
+        <v>400.7694991610457</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>70</v>
+      </c>
+      <c r="B9" s="16">
+        <v>471.49352842475969</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>80</v>
+      </c>
+      <c r="B10" s="16">
+        <v>554.69826873501142</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>90</v>
+      </c>
+      <c r="B11" s="16">
+        <v>652.58619851177821</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>100</v>
+      </c>
+      <c r="B12" s="19">
+        <v>767.7484688373861</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16">
+        <v>191.8426310381796</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16">
+        <v>233.954428095341</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16">
+        <v>285.31027816505002</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>40</v>
+      </c>
+      <c r="B6" s="16">
+        <v>347.93936361591466</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>50</v>
+      </c>
+      <c r="B7" s="16">
+        <v>424.31629709257885</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>60</v>
+      </c>
+      <c r="B8" s="16">
+        <v>517.45889889338889</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>70</v>
+      </c>
+      <c r="B9" s="16">
+        <v>631.04743767486457</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>80</v>
+      </c>
+      <c r="B10" s="16">
+        <v>769.57004594495686</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>90</v>
+      </c>
+      <c r="B11" s="16">
+        <v>938.5000560304353</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>100</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1144.5122634517504</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>10</v>
+      </c>
+      <c r="B3" s="37">
+        <v>220.07140150360379</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>20</v>
+      </c>
+      <c r="B4" s="37">
+        <v>437.31118084431722</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.64</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>30</v>
+      </c>
+      <c r="B5" s="37">
+        <v>664.38926826199395</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.53289999999999993</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.73</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>40</v>
+      </c>
+      <c r="B6" s="37">
+        <v>944.35978909210371</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.47609999999999991</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>50</v>
+      </c>
+      <c r="B7" s="37">
+        <v>1085.690320033347</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.72249999999999992</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>60</v>
+      </c>
+      <c r="B8" s="37">
+        <v>1147.7574480502428</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.87</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>70</v>
+      </c>
+      <c r="B9" s="37">
+        <v>1216.1400189328795</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.83</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>80</v>
+      </c>
+      <c r="B10" s="37">
+        <v>1314.2861014953289</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.54022499999999996</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>90</v>
+      </c>
+      <c r="B11" s="37">
+        <v>1323.1382921661962</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.47609999999999991</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
+        <v>100</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1338.6455999460391</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>10</v>
+      </c>
+      <c r="B3" s="37">
+        <v>489.67725984034814</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>20</v>
+      </c>
+      <c r="B4" s="37">
+        <v>589.97260221728698</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>30</v>
+      </c>
+      <c r="B5" s="37">
+        <v>710.81036411721323</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>40</v>
+      </c>
+      <c r="B6" s="37">
+        <v>856.3980290568835</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>50</v>
+      </c>
+      <c r="B7" s="37">
+        <v>1031.8048542854019</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>60</v>
+      </c>
+      <c r="B8" s="37">
+        <v>1243.1383786571109</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>70</v>
+      </c>
+      <c r="B9" s="37">
+        <v>1497.7570827194108</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>80</v>
+      </c>
+      <c r="B10" s="37">
+        <v>1804.5266056860373</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>90</v>
+      </c>
+      <c r="B11" s="37">
+        <v>2174.1284405855872</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
+        <v>100</v>
+      </c>
+      <c r="B12" s="39">
+        <v>2619.4318561272139</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>10</v>
+      </c>
+      <c r="B3" s="37">
+        <v>713.58991541814669</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>20</v>
+      </c>
+      <c r="B4" s="37">
+        <v>839.51754755076081</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>30</v>
+      </c>
+      <c r="B5" s="37">
+        <v>987.66770300089513</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>40</v>
+      </c>
+      <c r="B6" s="37">
+        <v>1161.9620035304649</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>50</v>
+      </c>
+      <c r="B7" s="37">
+        <v>1367.0141218005469</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>60</v>
+      </c>
+      <c r="B8" s="37">
+        <v>1608.2519080006434</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>70</v>
+      </c>
+      <c r="B9" s="37">
+        <v>1892.0610682360511</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>80</v>
+      </c>
+      <c r="B10" s="37">
+        <v>2225.954197924766</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>90</v>
+      </c>
+      <c r="B11" s="37">
+        <v>2618.7696446173718</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
+        <v>100</v>
+      </c>
+      <c r="B12" s="39">
+        <v>3080.9054642557317</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId7"/>
     <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId8"/>
     <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId9"/>
-    <sheet name="Valve_30.0_600_3" sheetId="10" r:id="rId10"/>
+    <sheet name="Valve_32.0_600_3" sheetId="10" r:id="rId10"/>
     <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId11"/>
     <sheet name="Valve_2.0_1500_3" sheetId="12" r:id="rId12"/>
     <sheet name="Valve_2.0_600_3 (2)" sheetId="13" r:id="rId13"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId7"/>
     <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId8"/>
     <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId9"/>
-    <sheet name="Valve_32.0_600_3" sheetId="10" r:id="rId10"/>
+    <sheet name="Valve_30.0_600_3" sheetId="10" r:id="rId10"/>
     <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId11"/>
     <sheet name="Valve_2.0_1500_3" sheetId="12" r:id="rId12"/>
     <sheet name="Valve_2.0_600_3 (2)" sheetId="13" r:id="rId13"/>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId7"/>
     <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId8"/>
     <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId9"/>
-    <sheet name="Valve_30.0_600_3" sheetId="10" r:id="rId10"/>
+    <sheet name="Valve_33.0_600_3" sheetId="10" r:id="rId10"/>
     <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId11"/>
     <sheet name="Valve_2.0_1500_3" sheetId="12" r:id="rId12"/>
     <sheet name="Valve_2.0_600_3 (2)" sheetId="13" r:id="rId13"/>
@@ -100,9 +100,6 @@
     <t>Valve_20.0_600_3</t>
   </si>
   <si>
-    <t>Valve_30.0_600_3</t>
-  </si>
-  <si>
     <t>Valve_8.0_600_4</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>ValveList</t>
+  </si>
+  <si>
+    <t>Valve_33.0_600_3!A1</t>
   </si>
 </sst>
 </file>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2">
         <v>600</v>
@@ -958,7 +958,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1011,9 +1011,9 @@
     <hyperlink ref="F7" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
     <hyperlink ref="F8" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
     <hyperlink ref="F9" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
-    <hyperlink ref="F10" location="Valve_30.0_600_3!A1" display="Valve_30.0_600_3"/>
     <hyperlink ref="F11" location="Valve_8.0_600_4!A1" display="Valve_8.0_600_4"/>
     <hyperlink ref="F12" location="Valve_2.0_1500_3!A1" display="Valve_2.0_1500_3"/>
+    <hyperlink ref="F10" location="Valve_33.0_600_3!A1" display="Valve_33.0_600_3!A1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,19 +1034,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,19 +1235,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1438,19 +1438,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1642,19 +1642,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,19 +1846,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,19 +2049,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,19 +2252,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,19 +2455,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,19 +2658,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2861,19 +2861,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3065,19 +3065,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3269,19 +3269,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3472,19 +3472,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3675,19 +3675,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,19 +3878,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4081,19 +4081,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4284,19 +4284,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4487,19 +4487,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4690,19 +4690,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4893,19 +4893,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5096,19 +5096,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5299,19 +5299,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5503,19 +5503,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5706,19 +5706,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5909,19 +5909,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6112,19 +6112,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6315,19 +6315,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6518,19 +6518,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6721,19 +6721,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6924,19 +6924,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7127,19 +7127,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7330,19 +7330,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7534,19 +7534,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7737,19 +7737,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7941,19 +7941,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8144,19 +8144,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8345,19 +8345,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -14,21 +14,38 @@
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
     <sheet name="Valve_2.0_600_3" sheetId="2" r:id="rId2"/>
-    <sheet name="Valve_4.0_600_3" sheetId="5" r:id="rId3"/>
-    <sheet name="Valve_8.0_600_3" sheetId="6" r:id="rId4"/>
-    <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId5"/>
-    <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId6"/>
-    <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId7"/>
-    <sheet name="Valve_30.0_600_3" sheetId="10" r:id="rId8"/>
-    <sheet name="Valve_6.0_600_4" sheetId="13" r:id="rId9"/>
-    <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId10"/>
+    <sheet name="Valve_3.0_600_3" sheetId="14" r:id="rId3"/>
+    <sheet name="Valve_4.0_600_3" sheetId="5" r:id="rId4"/>
+    <sheet name="Valve_6.0_600_3" sheetId="15" r:id="rId5"/>
+    <sheet name="Valve_8.0_600_3" sheetId="16" r:id="rId6"/>
+    <sheet name="Valve_8.0_150_3" sheetId="6" r:id="rId7"/>
+    <sheet name="Valve_10.0_600_3" sheetId="17" r:id="rId8"/>
+    <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId9"/>
+    <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId10"/>
+    <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId11"/>
+    <sheet name="Valve_4.0_600_4" sheetId="18" r:id="rId12"/>
+    <sheet name="Valve_6.0_600_4" sheetId="13" r:id="rId13"/>
+    <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId14"/>
+    <sheet name="Valve_8.0_150_4" sheetId="19" r:id="rId15"/>
+    <sheet name="Valve_10.0_600_4" sheetId="20" r:id="rId16"/>
+    <sheet name="Valve_12.0_600_4" sheetId="21" r:id="rId17"/>
+    <sheet name="Valve_14.0_600_4" sheetId="23" r:id="rId18"/>
+    <sheet name="Valve_16.0_600_4" sheetId="24" r:id="rId19"/>
+    <sheet name="Valve_18.0_600_4" sheetId="25" r:id="rId20"/>
+    <sheet name="Valve_20.0_600_4" sheetId="26" r:id="rId21"/>
+    <sheet name="Valve_24.0_600_4" sheetId="27" r:id="rId22"/>
+    <sheet name="Valve_28.0_600_4" sheetId="28" r:id="rId23"/>
+    <sheet name="Valve_30.0_600_4" sheetId="29" r:id="rId24"/>
+    <sheet name="Valve_32.0_600_4" sheetId="30" r:id="rId25"/>
+    <sheet name="Valve_36.0_600_4" sheetId="31" r:id="rId26"/>
+    <sheet name="Valve_40.0_600_4" sheetId="32" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="37">
   <si>
     <t>size</t>
   </si>
@@ -66,9 +83,6 @@
     <t>Valve_20.0_600_3</t>
   </si>
   <si>
-    <t>Valve_30.0_600_3</t>
-  </si>
-  <si>
     <t>Valve_8.0_600_4</t>
   </si>
   <si>
@@ -88,6 +102,60 @@
   </si>
   <si>
     <t>Valve_6.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_3.0_600_3</t>
+  </si>
+  <si>
+    <t>Valve_6.0_600_3</t>
+  </si>
+  <si>
+    <t>Valve_8.0_150_3</t>
+  </si>
+  <si>
+    <t>Valve_10.0_600_3</t>
+  </si>
+  <si>
+    <t>Valve_4.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_8.0_150_4</t>
+  </si>
+  <si>
+    <t>Valve_10.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_12.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_14.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_16.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_18.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_20.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_24.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_28.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_30.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_32.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_36.0_600_4</t>
+  </si>
+  <si>
+    <t>Valve_40.0_600_4</t>
   </si>
 </sst>
 </file>
@@ -651,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +776,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>600</v>
@@ -720,15 +788,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>600</v>
@@ -740,15 +808,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -760,15 +828,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>600</v>
@@ -780,18 +848,18 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -800,15 +868,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>600</v>
@@ -820,63 +888,420 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>600</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>600</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>600</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>600</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>600</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
+      <c r="B14" s="2">
+        <v>600</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>600</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>600</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>600</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>600</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>600</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>600</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
+        <v>600</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>600</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
+        <v>600</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2">
+        <v>600</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2">
+        <v>600</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2">
+        <v>600</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" location="Valve_2.0_600_3!A1" display="Valve_2.0_600_3"/>
-    <hyperlink ref="F3" location="Valve_4.0_600_3!A1" display="Valve_4.0_600_3"/>
-    <hyperlink ref="F4" location="Valve_8.0_600_3!A1" display="Valve_8.0_600_3"/>
-    <hyperlink ref="F5" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
-    <hyperlink ref="F6" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
-    <hyperlink ref="F7" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
-    <hyperlink ref="F8" location="Valve_30.0_600_3!A1" display="Valve_30.0_600_3"/>
-    <hyperlink ref="F10" location="Valve_8.0_600_4!A1" display="Valve_8.0_600_4"/>
-    <hyperlink ref="F9" location="Valve_6.0_600_4!A1" display="Valve_6.0_600_4"/>
+    <hyperlink ref="F4" location="Valve_4.0_600_3!A1" display="Valve_4.0_600_3"/>
+    <hyperlink ref="F7" location="Valve_8.0_150_3!A1" display="Valve_8.0_150_3"/>
+    <hyperlink ref="F9" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
+    <hyperlink ref="F10" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
+    <hyperlink ref="F11" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
+    <hyperlink ref="F14" location="Valve_8.0_600_4!A1" display="Valve_8.0_600_4"/>
+    <hyperlink ref="F13" location="Valve_6.0_600_4!A1" display="Valve_6.0_600_4"/>
+    <hyperlink ref="F3" location="Valve_3.0_600_3!A1" display="Valve_3.0_600_3"/>
+    <hyperlink ref="F5" location="Valve_6.0_600_3!A1" display="Valve_6.0_600_3"/>
+    <hyperlink ref="F6" location="Valve_8.0_600_3!A1" display="Valve_8.0_600_3"/>
+    <hyperlink ref="F8" location="Valve_10.0_600_3!A1" display="Valve_10.0_600_3"/>
+    <hyperlink ref="F12" location="Valve_4.0_600_4!A1" display="Valve_4.0_600_4"/>
+    <hyperlink ref="F15" location="Valve_8.0_150_4!A1" display="Valve_8.0_150_4"/>
+    <hyperlink ref="F16" location="Valve_10.0_600_4!A1" display="Valve_10.0_600_4"/>
+    <hyperlink ref="F17" location="Valve_12.0_600_4!A1" display="Valve_12.0_600_4"/>
+    <hyperlink ref="F18" location="Valve_14.0_600_4!A1" display="Valve_14.0_600_4"/>
+    <hyperlink ref="F19" location="Valve_16.0_600_4!A1" display="Valve_16.0_600_4"/>
+    <hyperlink ref="F20" location="Valve_18.0_600_4!A1" display="Valve_18.0_600_4"/>
+    <hyperlink ref="F21" location="Valve_20.0_600_4!A1" display="Valve_20.0_600_4"/>
+    <hyperlink ref="F23" location="Valve_28.0_600_4!A1" display="Valve_28.0_600_4"/>
+    <hyperlink ref="F24" location="Valve_30.0_600_4!A1" display="Valve_30.0_600_4"/>
+    <hyperlink ref="F25" location="Valve_32.0_600_4!A1" display="Valve_32.0_600_4"/>
+    <hyperlink ref="F26" location="Valve_36.0_600_4!A1" display="Valve_36.0_600_4"/>
+    <hyperlink ref="F27" location="Valve_40.0_600_4!A1" display="Valve_40.0_600_4"/>
+    <hyperlink ref="F22" location="Valve_24.0_600_4!A1" display="Valve_24.0_600_4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -887,7 +1312,409 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7.39</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>70</v>
+      </c>
+      <c r="B9" s="9">
+        <v>15.7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>80</v>
+      </c>
+      <c r="B10" s="9">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>90</v>
+      </c>
+      <c r="B11" s="9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>100</v>
+      </c>
+      <c r="B12" s="12">
+        <v>16.8</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="18"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7.39</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>70</v>
+      </c>
+      <c r="B9" s="9">
+        <v>15.7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>80</v>
+      </c>
+      <c r="B10" s="9">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>90</v>
+      </c>
+      <c r="B11" s="9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>100</v>
+      </c>
+      <c r="B12" s="12">
+        <v>16.8</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="18"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,19 +1724,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,13 +1759,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="21">
-        <v>0</v>
+        <v>88.233180317705035</v>
       </c>
       <c r="C3" s="21">
-        <v>0</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D3" s="21">
-        <v>0</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -947,13 +1774,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="21">
-        <v>18.986232644492688</v>
+        <v>101.41744864104027</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D4" s="21">
-        <v>0.6</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E4" s="19"/>
     </row>
@@ -962,13 +1789,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="21">
-        <v>44.383454121572619</v>
+        <v>116.57178004717272</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D5" s="21">
-        <v>0.62170000000000003</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E5" s="19"/>
     </row>
@@ -977,13 +1804,13 @@
         <v>40</v>
       </c>
       <c r="B6" s="21">
-        <v>142.05858314674643</v>
+        <v>133.99055177835945</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D6" s="21">
-        <v>0.61850000000000005</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E6" s="19"/>
     </row>
@@ -992,13 +1819,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="21">
-        <v>260.93930660910786</v>
+        <v>154.01212848087292</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D7" s="21">
-        <v>0.59299999999999997</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E7" s="19"/>
     </row>
@@ -1007,13 +1834,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="21">
-        <v>457.75779764190349</v>
+        <v>177.02543503548611</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D8" s="21">
-        <v>0.57899999999999996</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1022,13 +1849,13 @@
         <v>70</v>
       </c>
       <c r="B9" s="21">
-        <v>777.14975431228527</v>
+        <v>203.47751153504151</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D9" s="21">
-        <v>0.51900000000000002</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E9" s="19"/>
     </row>
@@ -1037,13 +1864,13 @@
         <v>80</v>
       </c>
       <c r="B10" s="21">
-        <v>984.39348661726467</v>
+        <v>233.88219716671438</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D10" s="21">
-        <v>0.53349999999999997</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E10" s="19"/>
     </row>
@@ -1052,13 +1879,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="21">
-        <v>1115.0442453350299</v>
+        <v>268.83011168587859</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D11" s="21">
-        <v>0.57999999999999996</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E11" s="19"/>
     </row>
@@ -1067,7 +1894,1428 @@
         <v>100</v>
       </c>
       <c r="B12" s="22">
+        <v>309.00012837457308</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>202.09531731077016</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>232.29346817329903</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>267.00398640609086</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>306.90113380010445</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>352.759923908166</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>405.47117690593791</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>466.05882402981371</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>535.69979773541809</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>615.74689394875645</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>707.75505051581206</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>153.60863189832318</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>180.71603752743903</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>240.95471670325205</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>321.27295560433606</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>428.3639408057814</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>571.1519210743752</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>761.53589476583352</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1015.3811930211114</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1353.8415906948151</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>18.986232644492688</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44.383454121572619</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>142.05858314674643</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>260.93930660910786</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>457.75779764190349</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>777.14975431228527</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>984.39348661726467</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1115.0442453350299</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
         <v>1145.7583178945802</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>234.8375415557019</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>313.11672207426921</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>417.48896276569224</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>556.65195035425631</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>742.20260047234171</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>989.60346729645562</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1319.4712897286074</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1759.2950529714765</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2345.726737295302</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>288.44974223739052</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>384.59965631652068</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>512.79954175536091</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>683.73272234048125</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>911.64362978730833</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1215.5248397164112</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1620.6997862885482</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2160.9330483847311</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2881.244064512975</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>333.65701320708223</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>444.87601760944295</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>593.16802347925727</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>790.8906979723431</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1054.5209306297909</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1406.0279075063879</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1874.7038766751839</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2499.6051689002452</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>3332.8068918669933</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>240.43844084045631</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>343.4834869149376</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>490.69069559276801</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>700.98670798966862</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1001.4095828423838</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1430.5851183462626</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2043.6930262089468</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2919.5614660127812</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>4170.8020943039737</v>
       </c>
       <c r="C12" s="22">
         <v>0.37209999999999999</v>
@@ -1090,7 +3338,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,19 +3349,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1287,6 +3535,1630 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>574.85197006351962</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>766.46929341802615</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1021.9590578907016</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1362.6120771876022</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1816.8161029168027</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>2422.421470555737</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>3229.8952940743156</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>4306.5270587657542</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>5742.0360783543383</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>715.67692875486136</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>954.23590500648174</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1272.3145400086423</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1696.4193866781898</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>2261.8925155709198</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>3015.8566874278931</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>4021.1422499038572</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>5361.5229998718096</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>7148.6973331624131</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>582.09010503357501</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>831.55729290510715</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1187.9389898644388</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1697.0556998063412</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>2424.3652854376305</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>3463.3789791966155</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>4947.6842559951656</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>7068.1203657073793</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>10097.3148081534</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>772.22910731991828</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1103.1844390284548</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1575.9777700406498</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>2251.3968143437855</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>3216.2811633482652</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>4594.6873762118075</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>6563.8391088740118</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>9376.9130126771597</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>13395.590018110228</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>858.94114486738749</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1227.0587783819822</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1752.9411119742604</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>2504.2015885346577</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>3577.4308407637968</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>5110.6154868054246</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>7300.879266864893</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>10429.827524092705</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>14899.753605846723</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>965.52863727154875</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1379.3266246736412</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1970.4666066766304</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>2814.9522952523293</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>4021.3604217890424</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>5744.8006025557752</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>8206.8580036511084</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>11724.082862358726</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>16748.689803369609</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1267.1728209115151</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1810.2468870164503</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2586.066981452072</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>3694.3814020743889</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>5277.6877172491277</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>7539.553881784469</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>10770.7912596921</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>15386.844656703001</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>21981.206652432858</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1447.4055946621702</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>2067.7222780888146</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.38651089000000005</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2953.8889686983071</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.38254225000000008</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>4219.8413838547249</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.35164899999999999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>6028.3448340781788</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>8611.9211915402557</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>12302.744559343222</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.28462224999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>17575.349370490319</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>25107.641957843316</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1300,393 +5172,191 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="25">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="E2" s="17"/>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>10</v>
       </c>
       <c r="B3" s="25">
-        <v>38.043017182577891</v>
+        <v>34.430616282164827</v>
       </c>
       <c r="C3" s="25">
-        <v>0.30913600000000008</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D3" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="E3" s="17"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>20</v>
       </c>
       <c r="B4" s="25">
-        <v>80.246766739175129</v>
+        <v>39.575421013982563</v>
       </c>
       <c r="C4" s="25">
-        <v>0.35402499999999998</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D4" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="E4" s="17"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>30</v>
       </c>
       <c r="B5" s="25">
-        <v>118.19476772685371</v>
+        <v>45.488989671244326</v>
       </c>
       <c r="C5" s="25">
-        <v>0.37209999999999999</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D5" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="E5" s="17"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>40</v>
       </c>
       <c r="B6" s="25">
-        <v>139.21847882617462</v>
+        <v>52.286195024418767</v>
       </c>
       <c r="C6" s="25">
-        <v>0.48999999999999994</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D6" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="E6" s="17"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>50</v>
       </c>
       <c r="B7" s="25">
-        <v>155.26096587806657</v>
+        <v>20.033024913570408</v>
       </c>
       <c r="C7" s="25">
-        <v>0.53289999999999993</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D7" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="E7" s="17"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>60</v>
       </c>
       <c r="B8" s="25">
-        <v>156.95350477559671</v>
+        <v>69.079396253691058</v>
       </c>
       <c r="C8" s="25">
-        <v>0.5776</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D8" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="17"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>70</v>
       </c>
       <c r="B9" s="25">
-        <v>169.70553538262996</v>
+        <v>79.40160488930006</v>
       </c>
       <c r="C9" s="25">
-        <v>0.53289999999999993</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D9" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="E9" s="17"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>80</v>
       </c>
       <c r="B10" s="25">
-        <v>171.43697025221709</v>
+        <v>91.266212516436852</v>
       </c>
       <c r="C10" s="25">
-        <v>0.47609999999999991</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D10" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="E10" s="17"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>90</v>
       </c>
       <c r="B11" s="25">
-        <v>176.87229528170275</v>
+        <v>104.90369254762857</v>
       </c>
       <c r="C11" s="25">
-        <v>0.48163599999999995</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D11" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="E11" s="17"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>100</v>
       </c>
       <c r="B12" s="26">
-        <v>182.5517650824853</v>
+        <v>120.5789569512972</v>
       </c>
       <c r="C12" s="26">
-        <v>0.48999999999999994</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D12" s="26">
-        <v>0.95</v>
-      </c>
-      <c r="E12" s="18"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0</v>
-      </c>
-      <c r="D2" s="27">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25">
-        <v>100</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0.68</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>20</v>
-      </c>
-      <c r="B4" s="25">
-        <v>200</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.68</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>30</v>
-      </c>
-      <c r="B5" s="25">
-        <v>300</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0.68</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>40</v>
-      </c>
-      <c r="B6" s="25">
-        <v>400</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.68</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>50</v>
-      </c>
-      <c r="B7" s="25">
-        <v>600</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.68</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>75</v>
-      </c>
-      <c r="B8" s="25">
-        <v>980</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.68</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>78</v>
-      </c>
-      <c r="B9" s="25">
-        <v>1118</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.68</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>83</v>
-      </c>
-      <c r="B10" s="25">
-        <v>1515</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.68</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>90</v>
-      </c>
-      <c r="B11" s="25">
-        <v>1800</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.68</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>100</v>
-      </c>
-      <c r="B12" s="26">
-        <v>2190</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0.68</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E12" s="18"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E12" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1697,34 +5367,237 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25">
+        <v>38.043017182577891</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.31360000000000005</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="25">
+        <v>80.246766739175129</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.35402499999999998</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25">
+        <v>118.19476772685371</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.61</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>40</v>
+      </c>
+      <c r="B6" s="25">
+        <v>139.21847882617462</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>50</v>
+      </c>
+      <c r="B7" s="25">
+        <v>155.26096587806657</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.53289999999999993</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.73</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="25">
+        <v>156.95350477559671</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.5776</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25">
+        <v>169.70553538262996</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.53289999999999993</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.73</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>80</v>
+      </c>
+      <c r="B10" s="25">
+        <v>171.43697025221709</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.47609999999999991</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>90</v>
+      </c>
+      <c r="B11" s="25">
+        <v>176.87229528170275</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.48163599999999995</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>100</v>
+      </c>
+      <c r="B12" s="26">
+        <v>182.5517650824853</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,7 +5620,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="25">
-        <v>50</v>
+        <v>110.55713754770203</v>
       </c>
       <c r="C3" s="25">
         <v>0.61622500000000002</v>
@@ -1762,7 +5635,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="25">
-        <v>100</v>
+        <v>127.0771695950598</v>
       </c>
       <c r="C4" s="25">
         <v>0.61622500000000002</v>
@@ -1777,7 +5650,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="25">
-        <v>200</v>
+        <v>146.06571217822966</v>
       </c>
       <c r="C5" s="25">
         <v>0.61622500000000002</v>
@@ -1792,7 +5665,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="25">
-        <v>300</v>
+        <v>167.89162319336742</v>
       </c>
       <c r="C6" s="25">
         <v>0.61622500000000002</v>
@@ -1807,7 +5680,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="25">
-        <v>500</v>
+        <v>192.97887723375567</v>
       </c>
       <c r="C7" s="25">
         <v>0.61622500000000002</v>
@@ -1822,7 +5695,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="25">
-        <v>700</v>
+        <v>221.81480141810997</v>
       </c>
       <c r="C8" s="25">
         <v>0.61622500000000002</v>
@@ -1837,7 +5710,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="25">
-        <v>900</v>
+        <v>254.95954185989652</v>
       </c>
       <c r="C9" s="25">
         <v>0.61622500000000002</v>
@@ -1852,7 +5725,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="25">
-        <v>1100</v>
+        <v>293.05694466654774</v>
       </c>
       <c r="C10" s="25">
         <v>0.61622500000000002</v>
@@ -1867,13 +5740,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="25">
-        <v>1323.0184453148931</v>
+        <v>336.84706283511235</v>
       </c>
       <c r="C11" s="25">
-        <v>0.47609999999999991</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D11" s="25">
-        <v>0.69</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E11" s="17"/>
     </row>
@@ -1882,13 +5755,13 @@
         <v>100</v>
       </c>
       <c r="B12" s="26">
-        <v>1338.5243484781358</v>
+        <v>387.18053199438202</v>
       </c>
       <c r="C12" s="26">
-        <v>0.37209999999999999</v>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D12" s="26">
-        <v>0.61</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E12" s="18"/>
     </row>
@@ -1915,33 +5788,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.58099999999999996</v>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -1949,14 +5822,14 @@
       <c r="A3" s="8">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
-        <v>3.28</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.60499999999999998</v>
+      <c r="B3" s="25">
+        <v>177.82355586572021</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E3" s="17"/>
     </row>
@@ -1964,14 +5837,14 @@
       <c r="A4" s="8">
         <v>20</v>
       </c>
-      <c r="B4" s="9">
-        <v>7.39</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.61699999999999999</v>
+      <c r="B4" s="25">
+        <v>209.20418337143556</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E4" s="17"/>
     </row>
@@ -1979,14 +5852,14 @@
       <c r="A5" s="8">
         <v>30</v>
       </c>
-      <c r="B5" s="9">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.64400000000000002</v>
+      <c r="B5" s="25">
+        <v>246.12256867227714</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E5" s="17"/>
     </row>
@@ -1994,14 +5867,14 @@
       <c r="A6" s="8">
         <v>40</v>
       </c>
-      <c r="B6" s="9">
-        <v>14.2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.76400000000000001</v>
+      <c r="B6" s="25">
+        <v>289.55596314385548</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E6" s="17"/>
     </row>
@@ -2009,59 +5882,59 @@
       <c r="A7" s="8">
         <v>50</v>
       </c>
-      <c r="B7" s="9">
-        <v>14.9</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.79</v>
+      <c r="B7" s="25">
+        <v>340.65407428688883</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>60</v>
-      </c>
-      <c r="B8" s="9">
-        <v>15.3</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.80900000000000005</v>
+        <v>75</v>
+      </c>
+      <c r="B8" s="25">
+        <v>400.7694991610457</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>70</v>
-      </c>
-      <c r="B9" s="9">
-        <v>15.7</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.81299999999999994</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="25">
+        <v>471.49352842475969</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>80</v>
-      </c>
-      <c r="B10" s="9">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.79500000000000004</v>
+        <v>83</v>
+      </c>
+      <c r="B10" s="25">
+        <v>554.69826873501142</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E10" s="17"/>
     </row>
@@ -2069,14 +5942,14 @@
       <c r="A11" s="8">
         <v>90</v>
       </c>
-      <c r="B11" s="9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.76800000000000002</v>
+      <c r="B11" s="25">
+        <v>652.58619851177821</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E11" s="17"/>
     </row>
@@ -2084,13 +5957,15 @@
       <c r="A12" s="11">
         <v>100</v>
       </c>
-      <c r="B12" s="12">
-        <v>16.8</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.68</v>
-      </c>
-      <c r="D12" s="12"/>
+      <c r="B12" s="26">
+        <v>767.7484688373861</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.78500000000000003</v>
+      </c>
       <c r="E12" s="18"/>
     </row>
   </sheetData>
@@ -2098,6 +5973,7 @@
     <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2105,9 +5981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2116,33 +5990,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.58099999999999996</v>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0.13700000000000001</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -2150,14 +6024,14 @@
       <c r="A3" s="8">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
-        <v>3.28</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="25">
+        <v>100</v>
+      </c>
+      <c r="C3" s="25">
         <v>0.68</v>
       </c>
-      <c r="D3" s="9">
-        <v>0.60499999999999998</v>
+      <c r="D3" s="25">
+        <v>0.13700000000000001</v>
       </c>
       <c r="E3" s="17"/>
     </row>
@@ -2165,14 +6039,14 @@
       <c r="A4" s="8">
         <v>20</v>
       </c>
-      <c r="B4" s="9">
-        <v>7.39</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="25">
+        <v>200</v>
+      </c>
+      <c r="C4" s="25">
         <v>0.68</v>
       </c>
-      <c r="D4" s="9">
-        <v>0.61699999999999999</v>
+      <c r="D4" s="25">
+        <v>0.13700000000000001</v>
       </c>
       <c r="E4" s="17"/>
     </row>
@@ -2180,14 +6054,14 @@
       <c r="A5" s="8">
         <v>30</v>
       </c>
-      <c r="B5" s="9">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="25">
+        <v>300</v>
+      </c>
+      <c r="C5" s="25">
         <v>0.68</v>
       </c>
-      <c r="D5" s="9">
-        <v>0.64400000000000002</v>
+      <c r="D5" s="25">
+        <v>0.13700000000000001</v>
       </c>
       <c r="E5" s="17"/>
     </row>
@@ -2195,14 +6069,14 @@
       <c r="A6" s="8">
         <v>40</v>
       </c>
-      <c r="B6" s="9">
-        <v>14.2</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="25">
+        <v>400</v>
+      </c>
+      <c r="C6" s="25">
         <v>0.68</v>
       </c>
-      <c r="D6" s="9">
-        <v>0.76400000000000001</v>
+      <c r="D6" s="25">
+        <v>0.13700000000000001</v>
       </c>
       <c r="E6" s="17"/>
     </row>
@@ -2210,59 +6084,59 @@
       <c r="A7" s="8">
         <v>50</v>
       </c>
-      <c r="B7" s="9">
-        <v>14.9</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="25">
+        <v>600</v>
+      </c>
+      <c r="C7" s="25">
         <v>0.68</v>
       </c>
-      <c r="D7" s="9">
-        <v>0.79</v>
+      <c r="D7" s="25">
+        <v>0.32800000000000001</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>60</v>
-      </c>
-      <c r="B8" s="9">
-        <v>15.3</v>
-      </c>
-      <c r="C8" s="9">
+        <v>75</v>
+      </c>
+      <c r="B8" s="25">
+        <v>980</v>
+      </c>
+      <c r="C8" s="25">
         <v>0.68</v>
       </c>
-      <c r="D8" s="9">
-        <v>0.80900000000000005</v>
+      <c r="D8" s="25">
+        <v>0.32800000000000001</v>
       </c>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>70</v>
-      </c>
-      <c r="B9" s="9">
-        <v>15.7</v>
-      </c>
-      <c r="C9" s="9">
+        <v>78</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1118</v>
+      </c>
+      <c r="C9" s="25">
         <v>0.68</v>
       </c>
-      <c r="D9" s="9">
-        <v>0.81299999999999994</v>
+      <c r="D9" s="25">
+        <v>0.32800000000000001</v>
       </c>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>80</v>
-      </c>
-      <c r="B10" s="9">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9">
+        <v>83</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1515</v>
+      </c>
+      <c r="C10" s="25">
         <v>0.68</v>
       </c>
-      <c r="D10" s="9">
-        <v>0.79500000000000004</v>
+      <c r="D10" s="25">
+        <v>0.52500000000000002</v>
       </c>
       <c r="E10" s="17"/>
     </row>
@@ -2270,14 +6144,14 @@
       <c r="A11" s="8">
         <v>90</v>
       </c>
-      <c r="B11" s="9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="25">
+        <v>1800</v>
+      </c>
+      <c r="C11" s="25">
         <v>0.68</v>
       </c>
-      <c r="D11" s="9">
-        <v>0.76800000000000002</v>
+      <c r="D11" s="25">
+        <v>0.3</v>
       </c>
       <c r="E11" s="17"/>
     </row>
@@ -2285,13 +6159,15 @@
       <c r="A12" s="11">
         <v>100</v>
       </c>
-      <c r="B12" s="12">
-        <v>16.8</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="26">
+        <v>2190</v>
+      </c>
+      <c r="C12" s="26">
         <v>0.68</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="26">
+        <v>0.13700000000000001</v>
+      </c>
       <c r="E12" s="18"/>
     </row>
   </sheetData>
@@ -2299,6 +6175,7 @@
     <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2312,38 +6189,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.58099999999999996</v>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -2351,14 +6228,14 @@
       <c r="A3" s="8">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
-        <v>3.28</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.60499999999999998</v>
+      <c r="B3" s="25">
+        <v>191.8426310381796</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E3" s="17"/>
     </row>
@@ -2366,14 +6243,14 @@
       <c r="A4" s="8">
         <v>20</v>
       </c>
-      <c r="B4" s="9">
-        <v>7.39</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.61699999999999999</v>
+      <c r="B4" s="25">
+        <v>233.954428095341</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E4" s="17"/>
     </row>
@@ -2381,14 +6258,14 @@
       <c r="A5" s="8">
         <v>30</v>
       </c>
-      <c r="B5" s="9">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.64400000000000002</v>
+      <c r="B5" s="25">
+        <v>285.31027816505002</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E5" s="17"/>
     </row>
@@ -2396,14 +6273,14 @@
       <c r="A6" s="8">
         <v>40</v>
       </c>
-      <c r="B6" s="9">
-        <v>14.2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.76400000000000001</v>
+      <c r="B6" s="25">
+        <v>347.93936361591466</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E6" s="17"/>
     </row>
@@ -2411,14 +6288,14 @@
       <c r="A7" s="8">
         <v>50</v>
       </c>
-      <c r="B7" s="9">
-        <v>14.9</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.79</v>
+      <c r="B7" s="25">
+        <v>424.31629709257885</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E7" s="17"/>
     </row>
@@ -2426,14 +6303,14 @@
       <c r="A8" s="8">
         <v>60</v>
       </c>
-      <c r="B8" s="9">
-        <v>15.3</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.80900000000000005</v>
+      <c r="B8" s="25">
+        <v>517.45889889338889</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E8" s="17"/>
     </row>
@@ -2441,14 +6318,14 @@
       <c r="A9" s="8">
         <v>70</v>
       </c>
-      <c r="B9" s="9">
-        <v>15.7</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.81299999999999994</v>
+      <c r="B9" s="25">
+        <v>631.04743767486457</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E9" s="17"/>
     </row>
@@ -2456,14 +6333,14 @@
       <c r="A10" s="8">
         <v>80</v>
       </c>
-      <c r="B10" s="9">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.79500000000000004</v>
+      <c r="B10" s="25">
+        <v>769.57004594495686</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E10" s="17"/>
     </row>
@@ -2471,14 +6348,14 @@
       <c r="A11" s="8">
         <v>90</v>
       </c>
-      <c r="B11" s="9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.76800000000000002</v>
+      <c r="B11" s="25">
+        <v>938.5000560304353</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.78500000000000003</v>
       </c>
       <c r="E11" s="17"/>
     </row>
@@ -2486,13 +6363,15 @@
       <c r="A12" s="11">
         <v>100</v>
       </c>
-      <c r="B12" s="12">
-        <v>16.8</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.68</v>
-      </c>
-      <c r="D12" s="12"/>
+      <c r="B12" s="26">
+        <v>1144.5122634517504</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.78500000000000003</v>
+      </c>
       <c r="E12" s="18"/>
     </row>
   </sheetData>
@@ -2508,195 +6387,195 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19"/>
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="8">
         <v>10</v>
       </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19"/>
+      <c r="B3" s="25">
+        <v>50</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>25</v>
-      </c>
-      <c r="B4" s="21">
-        <v>18.986232644492688</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0.36</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="19"/>
+      <c r="A4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="25">
+        <v>100</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="8">
         <v>30</v>
       </c>
-      <c r="B5" s="21">
-        <v>44.383454121572619</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0.38651089000000005</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="E5" s="19"/>
+      <c r="B5" s="25">
+        <v>200</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="8">
         <v>40</v>
       </c>
-      <c r="B6" s="21">
-        <v>142.05858314674643</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0.38254225000000008</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0.61850000000000005</v>
-      </c>
-      <c r="E6" s="19"/>
+      <c r="B6" s="25">
+        <v>300</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="8">
         <v>50</v>
       </c>
-      <c r="B7" s="21">
-        <v>260.93930660910786</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.35164899999999999</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="E7" s="19"/>
+      <c r="B7" s="25">
+        <v>500</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="8">
         <v>60</v>
       </c>
-      <c r="B8" s="21">
-        <v>457.75779764190349</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.33524099999999996</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="E8" s="19"/>
+      <c r="B8" s="25">
+        <v>700</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="8">
         <v>70</v>
       </c>
-      <c r="B9" s="21">
-        <v>777.14975431228527</v>
-      </c>
-      <c r="C9" s="21">
-        <v>0.26936100000000002</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="E9" s="19"/>
+      <c r="B9" s="25">
+        <v>900</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="8">
         <v>80</v>
       </c>
-      <c r="B10" s="21">
-        <v>984.39348661726467</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0.28462224999999997</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="E10" s="19"/>
+      <c r="B10" s="25">
+        <v>1100</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="8">
         <v>90</v>
       </c>
-      <c r="B11" s="21">
-        <v>1115.0442453350299</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0.33639999999999998</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E11" s="19"/>
+      <c r="B11" s="25">
+        <v>1323.0184453148931</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.47609999999999991</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
+      <c r="A12" s="11">
         <v>100</v>
       </c>
-      <c r="B12" s="22">
-        <v>1145.7583178945802</v>
-      </c>
-      <c r="C12" s="22">
+      <c r="B12" s="26">
+        <v>1338.5243484781358</v>
+      </c>
+      <c r="C12" s="26">
         <v>0.37209999999999999</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="26">
         <v>0.61</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="20" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -323,21 +323,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,9 +402,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1312,7 +1300,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,11 +1332,13 @@
       <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="25">
+        <f>C3</f>
         <v>0.68</v>
       </c>
-      <c r="D2" s="9">
-        <v>0.58099999999999996</v>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.60499999999999998</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -1513,7 +1503,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,11 +1535,13 @@
       <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="25">
+        <f>C3</f>
         <v>0.68</v>
       </c>
-      <c r="D2" s="9">
-        <v>0.58099999999999996</v>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.60499999999999998</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -1714,7 +1706,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,11 +1738,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -1917,7 +1911,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,11 +1943,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -2120,7 +2116,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,11 +2148,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -2167,11 +2165,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -2323,7 +2323,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,11 +2355,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -2370,11 +2372,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -2526,7 +2530,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,11 +2562,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -2573,11 +2579,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -2729,7 +2737,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,11 +2769,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -2776,11 +2786,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -2932,7 +2944,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,11 +2976,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -2979,11 +2993,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -3135,7 +3151,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,11 +3183,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -3182,11 +3200,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -3338,7 +3358,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,11 +3391,13 @@
       <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.28622500000000001</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.53500000000000003</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -3543,7 +3565,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D12"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3575,11 +3597,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -3590,11 +3614,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -3746,7 +3772,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D12"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,11 +3804,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -3793,11 +3821,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -3949,7 +3979,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D12"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,11 +4011,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -3996,11 +4028,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -4152,7 +4186,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D12"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,11 +4218,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -4199,11 +4235,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -4355,7 +4393,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4387,11 +4425,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -4402,11 +4442,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -4558,7 +4600,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4590,11 +4632,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -4605,11 +4649,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -4761,7 +4807,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4793,11 +4839,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -4808,11 +4856,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -4963,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4996,11 +5046,13 @@
       <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -5011,11 +5063,13 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
+      <c r="C3" s="25">
+        <f>C4</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -5167,7 +5221,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5200,11 +5254,13 @@
       <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
+      <c r="C2" s="25">
+        <f>C3</f>
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -5372,7 +5428,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,10 +5461,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <v>0</v>
+        <f>C3</f>
+        <v>0.31360000000000005</v>
       </c>
       <c r="D2" s="25">
-        <v>0</v>
+        <f>D3</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -5575,7 +5633,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5608,10 +5666,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <v>0</v>
+        <f>C3</f>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D2" s="25">
-        <v>0</v>
+        <f>D3</f>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -5778,7 +5838,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5811,10 +5871,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <v>0</v>
-      </c>
-      <c r="D2" s="27">
-        <v>0</v>
+        <f>C3</f>
+        <v>0.61622500000000002</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -5981,7 +6043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6013,9 +6077,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <v>0</v>
-      </c>
-      <c r="D2" s="27">
+        <f>C3</f>
+        <v>0.68</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
         <v>0.13700000000000001</v>
       </c>
       <c r="E2" s="17"/>
@@ -6184,7 +6250,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6217,10 +6283,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <v>0</v>
+        <f>C3</f>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D2" s="25">
-        <v>0</v>
+        <f>D3</f>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -6387,7 +6455,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6420,10 +6488,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <v>0</v>
+        <f>C3</f>
+        <v>0.61622500000000002</v>
       </c>
       <c r="D2" s="25">
-        <v>0</v>
+        <f>D3</f>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E2" s="17"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,8 +1333,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.68</v>
+        <v>0.7778174593052023</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -1350,7 +1349,7 @@
         <v>3.28</v>
       </c>
       <c r="C3" s="9">
-        <v>0.68</v>
+        <v>0.7778174593052023</v>
       </c>
       <c r="D3" s="9">
         <v>0.60499999999999998</v>
@@ -1365,7 +1364,7 @@
         <v>7.39</v>
       </c>
       <c r="C4" s="9">
-        <v>0.68</v>
+        <v>0.78549347546621928</v>
       </c>
       <c r="D4" s="9">
         <v>0.61699999999999999</v>
@@ -1380,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="9">
-        <v>0.68</v>
+        <v>0.80249610590955522</v>
       </c>
       <c r="D5" s="9">
         <v>0.64400000000000002</v>
@@ -1395,7 +1394,7 @@
         <v>14.2</v>
       </c>
       <c r="C6" s="9">
-        <v>0.68</v>
+        <v>0.87407093533648628</v>
       </c>
       <c r="D6" s="9">
         <v>0.76400000000000001</v>
@@ -1410,7 +1409,7 @@
         <v>14.9</v>
       </c>
       <c r="C7" s="9">
-        <v>0.68</v>
+        <v>0.88881944173155891</v>
       </c>
       <c r="D7" s="9">
         <v>0.79</v>
@@ -1425,7 +1424,7 @@
         <v>15.3</v>
       </c>
       <c r="C8" s="9">
-        <v>0.68</v>
+        <v>0.89944427287075435</v>
       </c>
       <c r="D8" s="9">
         <v>0.80900000000000005</v>
@@ -1440,7 +1439,7 @@
         <v>15.7</v>
       </c>
       <c r="C9" s="9">
-        <v>0.68</v>
+        <v>0.90166512630798801</v>
       </c>
       <c r="D9" s="9">
         <v>0.81299999999999994</v>
@@ -1455,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9">
-        <v>0.68</v>
+        <v>0.89162772500635046</v>
       </c>
       <c r="D10" s="9">
         <v>0.79500000000000004</v>
@@ -1470,7 +1469,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="C11" s="9">
-        <v>0.68</v>
+        <v>0.87635609200826581</v>
       </c>
       <c r="D11" s="9">
         <v>0.76800000000000002</v>
@@ -1485,9 +1484,11 @@
         <v>16.8</v>
       </c>
       <c r="C12" s="12">
-        <v>0.68</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>0.87635609200826581</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.76800000000000002</v>
+      </c>
       <c r="E12" s="18"/>
     </row>
   </sheetData>
@@ -1503,7 +1504,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,8 +1537,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.68</v>
+        <v>0.7778174593052023</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -1552,8 +1552,8 @@
       <c r="B3" s="9">
         <v>3.28</v>
       </c>
-      <c r="C3" s="9">
-        <v>0.68</v>
+      <c r="C3" s="25">
+        <v>0.7778174593052023</v>
       </c>
       <c r="D3" s="9">
         <v>0.60499999999999998</v>
@@ -1567,8 +1567,8 @@
       <c r="B4" s="9">
         <v>7.39</v>
       </c>
-      <c r="C4" s="9">
-        <v>0.68</v>
+      <c r="C4" s="25">
+        <v>0.78549347546621928</v>
       </c>
       <c r="D4" s="9">
         <v>0.61699999999999999</v>
@@ -1582,8 +1582,8 @@
       <c r="B5" s="9">
         <v>12</v>
       </c>
-      <c r="C5" s="9">
-        <v>0.68</v>
+      <c r="C5" s="25">
+        <v>0.80249610590955522</v>
       </c>
       <c r="D5" s="9">
         <v>0.64400000000000002</v>
@@ -1597,8 +1597,8 @@
       <c r="B6" s="9">
         <v>14.2</v>
       </c>
-      <c r="C6" s="9">
-        <v>0.68</v>
+      <c r="C6" s="25">
+        <v>0.87407093533648628</v>
       </c>
       <c r="D6" s="9">
         <v>0.76400000000000001</v>
@@ -1612,8 +1612,8 @@
       <c r="B7" s="9">
         <v>14.9</v>
       </c>
-      <c r="C7" s="9">
-        <v>0.68</v>
+      <c r="C7" s="25">
+        <v>0.88881944173155891</v>
       </c>
       <c r="D7" s="9">
         <v>0.79</v>
@@ -1627,8 +1627,8 @@
       <c r="B8" s="9">
         <v>15.3</v>
       </c>
-      <c r="C8" s="9">
-        <v>0.68</v>
+      <c r="C8" s="25">
+        <v>0.89944427287075435</v>
       </c>
       <c r="D8" s="9">
         <v>0.80900000000000005</v>
@@ -1642,8 +1642,8 @@
       <c r="B9" s="9">
         <v>15.7</v>
       </c>
-      <c r="C9" s="9">
-        <v>0.68</v>
+      <c r="C9" s="25">
+        <v>0.90166512630798801</v>
       </c>
       <c r="D9" s="9">
         <v>0.81299999999999994</v>
@@ -1657,8 +1657,8 @@
       <c r="B10" s="9">
         <v>16</v>
       </c>
-      <c r="C10" s="9">
-        <v>0.68</v>
+      <c r="C10" s="25">
+        <v>0.89162772500635046</v>
       </c>
       <c r="D10" s="9">
         <v>0.79500000000000004</v>
@@ -1672,8 +1672,8 @@
       <c r="B11" s="9">
         <v>16.399999999999999</v>
       </c>
-      <c r="C11" s="9">
-        <v>0.68</v>
+      <c r="C11" s="25">
+        <v>0.87635609200826581</v>
       </c>
       <c r="D11" s="9">
         <v>0.76800000000000002</v>
@@ -1687,10 +1687,12 @@
       <c r="B12" s="12">
         <v>16.8</v>
       </c>
-      <c r="C12" s="12">
-        <v>0.68</v>
-      </c>
-      <c r="D12" s="12"/>
+      <c r="C12" s="26">
+        <v>0.87635609200826581</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.76800000000000002</v>
+      </c>
       <c r="E12" s="18"/>
     </row>
   </sheetData>
@@ -1706,7 +1708,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,8 +1741,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -1756,7 +1757,7 @@
         <v>88.233180317705035</v>
       </c>
       <c r="C3" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D3" s="21">
         <v>0.78500000000000003</v>
@@ -1771,7 +1772,7 @@
         <v>101.41744864104027</v>
       </c>
       <c r="C4" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D4" s="21">
         <v>0.78500000000000003</v>
@@ -1786,7 +1787,7 @@
         <v>116.57178004717272</v>
       </c>
       <c r="C5" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D5" s="21">
         <v>0.78500000000000003</v>
@@ -1801,7 +1802,7 @@
         <v>133.99055177835945</v>
       </c>
       <c r="C6" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D6" s="21">
         <v>0.78500000000000003</v>
@@ -1816,7 +1817,7 @@
         <v>154.01212848087292</v>
       </c>
       <c r="C7" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D7" s="21">
         <v>0.78500000000000003</v>
@@ -1831,7 +1832,7 @@
         <v>177.02543503548611</v>
       </c>
       <c r="C8" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D8" s="21">
         <v>0.78500000000000003</v>
@@ -1846,7 +1847,7 @@
         <v>203.47751153504151</v>
       </c>
       <c r="C9" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D9" s="21">
         <v>0.78500000000000003</v>
@@ -1861,7 +1862,7 @@
         <v>233.88219716671438</v>
       </c>
       <c r="C10" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D10" s="21">
         <v>0.78500000000000003</v>
@@ -1876,7 +1877,7 @@
         <v>268.83011168587859</v>
       </c>
       <c r="C11" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D11" s="21">
         <v>0.78500000000000003</v>
@@ -1891,7 +1892,7 @@
         <v>309.00012837457308</v>
       </c>
       <c r="C12" s="22">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D12" s="22">
         <v>0.78500000000000003</v>
@@ -1911,7 +1912,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,8 +1945,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -1961,7 +1961,7 @@
         <v>202.09531731077016</v>
       </c>
       <c r="C3" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D3" s="21">
         <v>0.78500000000000003</v>
@@ -1976,7 +1976,7 @@
         <v>232.29346817329903</v>
       </c>
       <c r="C4" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D4" s="21">
         <v>0.78500000000000003</v>
@@ -1991,7 +1991,7 @@
         <v>267.00398640609086</v>
       </c>
       <c r="C5" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D5" s="21">
         <v>0.78500000000000003</v>
@@ -2006,7 +2006,7 @@
         <v>306.90113380010445</v>
       </c>
       <c r="C6" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D6" s="21">
         <v>0.78500000000000003</v>
@@ -2021,7 +2021,7 @@
         <v>352.759923908166</v>
       </c>
       <c r="C7" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D7" s="21">
         <v>0.78500000000000003</v>
@@ -2036,7 +2036,7 @@
         <v>405.47117690593791</v>
       </c>
       <c r="C8" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D8" s="21">
         <v>0.78500000000000003</v>
@@ -2051,7 +2051,7 @@
         <v>466.05882402981371</v>
       </c>
       <c r="C9" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D9" s="21">
         <v>0.78500000000000003</v>
@@ -2066,7 +2066,7 @@
         <v>535.69979773541809</v>
       </c>
       <c r="C10" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D10" s="21">
         <v>0.78500000000000003</v>
@@ -2081,7 +2081,7 @@
         <v>615.74689394875645</v>
       </c>
       <c r="C11" s="21">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D11" s="21">
         <v>0.78500000000000003</v>
@@ -2096,7 +2096,7 @@
         <v>707.75505051581206</v>
       </c>
       <c r="C12" s="22">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D12" s="22">
         <v>0.78500000000000003</v>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,8 +2149,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -2166,8 +2165,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -2183,7 +2181,7 @@
         <v>153.60863189832318</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -2198,7 +2196,7 @@
         <v>180.71603752743903</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -2213,7 +2211,7 @@
         <v>240.95471670325205</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -2228,7 +2226,7 @@
         <v>321.27295560433606</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -2243,7 +2241,7 @@
         <v>428.3639408057814</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -2258,7 +2256,7 @@
         <v>571.1519210743752</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -2273,7 +2271,7 @@
         <v>761.53589476583352</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -2288,7 +2286,7 @@
         <v>1015.3811930211114</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -2303,7 +2301,7 @@
         <v>1353.8415906948151</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -2323,7 +2321,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,8 +2354,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -2373,8 +2370,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -2390,7 +2386,7 @@
         <v>18.986232644492688</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -2405,7 +2401,7 @@
         <v>44.383454121572619</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -2420,7 +2416,7 @@
         <v>142.05858314674643</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -2435,7 +2431,7 @@
         <v>260.93930660910786</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -2450,7 +2446,7 @@
         <v>457.75779764190349</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -2465,7 +2461,7 @@
         <v>777.14975431228527</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -2480,7 +2476,7 @@
         <v>984.39348661726467</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -2495,7 +2491,7 @@
         <v>1115.0442453350299</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -2510,7 +2506,7 @@
         <v>1145.7583178945802</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -2530,7 +2526,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,8 +2559,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -2580,8 +2575,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -2597,7 +2591,7 @@
         <v>234.8375415557019</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -2612,7 +2606,7 @@
         <v>313.11672207426921</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -2627,7 +2621,7 @@
         <v>417.48896276569224</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -2642,7 +2636,7 @@
         <v>556.65195035425631</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -2657,7 +2651,7 @@
         <v>742.20260047234171</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -2672,7 +2666,7 @@
         <v>989.60346729645562</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -2687,7 +2681,7 @@
         <v>1319.4712897286074</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -2702,7 +2696,7 @@
         <v>1759.2950529714765</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -2717,7 +2711,7 @@
         <v>2345.726737295302</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -2737,7 +2731,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,8 +2764,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -2787,8 +2780,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -2804,7 +2796,7 @@
         <v>288.44974223739052</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -2819,7 +2811,7 @@
         <v>384.59965631652068</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -2834,7 +2826,7 @@
         <v>512.79954175536091</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -2849,7 +2841,7 @@
         <v>683.73272234048125</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -2864,7 +2856,7 @@
         <v>911.64362978730833</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -2879,7 +2871,7 @@
         <v>1215.5248397164112</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -2894,7 +2886,7 @@
         <v>1620.6997862885482</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -2909,7 +2901,7 @@
         <v>2160.9330483847311</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -2924,7 +2916,7 @@
         <v>2881.244064512975</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -2944,7 +2936,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,8 +2969,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -2994,8 +2985,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -3011,7 +3001,7 @@
         <v>333.65701320708223</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -3026,7 +3016,7 @@
         <v>444.87601760944295</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -3041,7 +3031,7 @@
         <v>593.16802347925727</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -3056,7 +3046,7 @@
         <v>790.8906979723431</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -3071,7 +3061,7 @@
         <v>1054.5209306297909</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -3086,7 +3076,7 @@
         <v>1406.0279075063879</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -3101,7 +3091,7 @@
         <v>1874.7038766751839</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -3116,7 +3106,7 @@
         <v>2499.6051689002452</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -3131,7 +3121,7 @@
         <v>3332.8068918669933</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -3151,7 +3141,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,8 +3174,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -3201,8 +3190,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -3218,7 +3206,7 @@
         <v>240.43844084045631</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -3233,7 +3221,7 @@
         <v>343.4834869149376</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -3248,7 +3236,7 @@
         <v>490.69069559276801</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -3263,7 +3251,7 @@
         <v>700.98670798966862</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -3278,7 +3266,7 @@
         <v>1001.4095828423838</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -3293,7 +3281,7 @@
         <v>1430.5851183462626</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -3308,7 +3296,7 @@
         <v>2043.6930262089468</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -3323,7 +3311,7 @@
         <v>2919.5614660127812</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -3338,7 +3326,7 @@
         <v>4170.8020943039737</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -3358,7 +3346,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,8 +3380,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.28622500000000001</v>
+        <v>0.73143694191638975</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -3409,7 +3396,7 @@
         <v>13.31202233912504</v>
       </c>
       <c r="C3" s="25">
-        <v>0.28622500000000001</v>
+        <v>0.73143694191638975</v>
       </c>
       <c r="D3" s="25">
         <v>0.53500000000000003</v>
@@ -3424,7 +3411,7 @@
         <v>32.692258744082537</v>
       </c>
       <c r="C4" s="25">
-        <v>0.42902500000000005</v>
+        <v>0.80932070281193225</v>
       </c>
       <c r="D4" s="25">
         <v>0.65500000000000003</v>
@@ -3439,7 +3426,7 @@
         <v>35.413745781315342</v>
       </c>
       <c r="C5" s="25">
-        <v>0.38440000000000002</v>
+        <v>0.78740078740118113</v>
       </c>
       <c r="D5" s="25">
         <v>0.62</v>
@@ -3454,7 +3441,7 @@
         <v>38.501103306692336</v>
       </c>
       <c r="C6" s="25">
-        <v>0.38440000000000002</v>
+        <v>0.78740078740118113</v>
       </c>
       <c r="D6" s="25">
         <v>0.62</v>
@@ -3469,7 +3456,7 @@
         <v>42.26830779705768</v>
       </c>
       <c r="C7" s="25">
-        <v>0.5625</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="D7" s="25">
         <v>0.75</v>
@@ -3484,7 +3471,7 @@
         <v>43.230829971221965</v>
       </c>
       <c r="C8" s="25">
-        <v>0.5625</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="D8" s="25">
         <v>0.75</v>
@@ -3499,7 +3486,7 @@
         <v>44.654446769820602</v>
       </c>
       <c r="C9" s="25">
-        <v>0.51122499999999993</v>
+        <v>0.84557672626438818</v>
       </c>
       <c r="D9" s="25">
         <v>0.71499999999999997</v>
@@ -3514,7 +3501,7 @@
         <v>44.719984309519162</v>
       </c>
       <c r="C10" s="25">
-        <v>0.51839999999999997</v>
+        <v>0.84852813742385702</v>
       </c>
       <c r="D10" s="25">
         <v>0.72</v>
@@ -3529,7 +3516,7 @@
         <v>46.670236841657392</v>
       </c>
       <c r="C11" s="25">
-        <v>0.40195600000000004</v>
+        <v>0.79624116949577528</v>
       </c>
       <c r="D11" s="25">
         <v>0.63400000000000001</v>
@@ -3544,7 +3531,7 @@
         <v>48.040070456780072</v>
       </c>
       <c r="C12" s="26">
-        <v>0.403225</v>
+        <v>0.79686887252546135</v>
       </c>
       <c r="D12" s="26">
         <v>0.63500000000000001</v>
@@ -3565,7 +3552,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="J26" sqref="J26:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3598,8 +3585,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -3615,8 +3601,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -3632,7 +3617,7 @@
         <v>574.85197006351962</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -3647,7 +3632,7 @@
         <v>766.46929341802615</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -3662,7 +3647,7 @@
         <v>1021.9590578907016</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -3677,7 +3662,7 @@
         <v>1362.6120771876022</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -3692,7 +3677,7 @@
         <v>1816.8161029168027</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -3707,7 +3692,7 @@
         <v>2422.421470555737</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -3722,7 +3707,7 @@
         <v>3229.8952940743156</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -3737,7 +3722,7 @@
         <v>4306.5270587657542</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -3752,7 +3737,7 @@
         <v>5742.0360783543383</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -3772,7 +3757,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3805,8 +3790,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -3822,8 +3806,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -3839,7 +3822,7 @@
         <v>715.67692875486136</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -3854,7 +3837,7 @@
         <v>954.23590500648174</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -3869,7 +3852,7 @@
         <v>1272.3145400086423</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -3884,7 +3867,7 @@
         <v>1696.4193866781898</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -3899,7 +3882,7 @@
         <v>2261.8925155709198</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -3914,7 +3897,7 @@
         <v>3015.8566874278931</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -3929,7 +3912,7 @@
         <v>4021.1422499038572</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -3944,7 +3927,7 @@
         <v>5361.5229998718096</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -3959,7 +3942,7 @@
         <v>7148.6973331624131</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -3979,7 +3962,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4012,8 +3995,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -4029,8 +4011,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -4046,7 +4027,7 @@
         <v>582.09010503357501</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -4061,7 +4042,7 @@
         <v>831.55729290510715</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -4076,7 +4057,7 @@
         <v>1187.9389898644388</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -4091,7 +4072,7 @@
         <v>1697.0556998063412</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -4106,7 +4087,7 @@
         <v>2424.3652854376305</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -4121,7 +4102,7 @@
         <v>3463.3789791966155</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -4136,7 +4117,7 @@
         <v>4947.6842559951656</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -4151,7 +4132,7 @@
         <v>7068.1203657073793</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -4166,7 +4147,7 @@
         <v>10097.3148081534</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -4186,7 +4167,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,8 +4200,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -4236,8 +4216,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -4253,7 +4232,7 @@
         <v>772.22910731991828</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -4268,7 +4247,7 @@
         <v>1103.1844390284548</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -4283,7 +4262,7 @@
         <v>1575.9777700406498</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -4298,7 +4277,7 @@
         <v>2251.3968143437855</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -4313,7 +4292,7 @@
         <v>3216.2811633482652</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -4328,7 +4307,7 @@
         <v>4594.6873762118075</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -4343,7 +4322,7 @@
         <v>6563.8391088740118</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -4358,7 +4337,7 @@
         <v>9376.9130126771597</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -4373,7 +4352,7 @@
         <v>13395.590018110228</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -4393,7 +4372,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,8 +4405,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -4443,8 +4421,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -4460,7 +4437,7 @@
         <v>858.94114486738749</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -4475,7 +4452,7 @@
         <v>1227.0587783819822</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -4490,7 +4467,7 @@
         <v>1752.9411119742604</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -4505,7 +4482,7 @@
         <v>2504.2015885346577</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -4520,7 +4497,7 @@
         <v>3577.4308407637968</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -4535,7 +4512,7 @@
         <v>5110.6154868054246</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -4550,7 +4527,7 @@
         <v>7300.879266864893</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -4565,7 +4542,7 @@
         <v>10429.827524092705</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -4580,7 +4557,7 @@
         <v>14899.753605846723</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -4600,7 +4577,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4633,8 +4610,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <f>SQRT(D2)</f>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -4650,8 +4627,8 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <f t="shared" ref="C3:C12" si="0">SQRT(D3)</f>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -4667,7 +4644,8 @@
         <v>965.52863727154875</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <f t="shared" si="0"/>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -4682,7 +4660,8 @@
         <v>1379.3266246736412</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -4697,7 +4676,8 @@
         <v>1970.4666066766304</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <f t="shared" si="0"/>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -4712,7 +4692,8 @@
         <v>2814.9522952523293</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -4727,7 +4708,8 @@
         <v>4021.3604217890424</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -4742,7 +4724,8 @@
         <v>5744.8006025557752</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -4757,7 +4740,8 @@
         <v>8206.8580036511084</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -4772,7 +4756,8 @@
         <v>11724.082862358726</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -4787,7 +4772,8 @@
         <v>16748.689803369609</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -4807,7 +4793,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4840,8 +4826,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <f>SQRT(D2)</f>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -4857,8 +4843,8 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <f t="shared" ref="C3:C12" si="0">SQRT(D3)</f>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -4874,7 +4860,8 @@
         <v>1267.1728209115151</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <f t="shared" si="0"/>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -4889,7 +4876,8 @@
         <v>1810.2468870164503</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -4904,7 +4892,8 @@
         <v>2586.066981452072</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <f t="shared" si="0"/>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -4919,7 +4908,8 @@
         <v>3694.3814020743889</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -4934,7 +4924,8 @@
         <v>5277.6877172491277</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -4949,7 +4940,8 @@
         <v>7539.553881784469</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -4964,7 +4956,8 @@
         <v>10770.7912596921</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -4979,7 +4972,8 @@
         <v>15386.844656703001</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -4994,7 +4988,8 @@
         <v>21981.206652432858</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -5014,7 +5009,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5047,8 +5042,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -5064,8 +5058,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="25">
-        <f>C4</f>
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D3" s="25">
         <f>D4</f>
@@ -5081,7 +5074,7 @@
         <v>1447.4055946621702</v>
       </c>
       <c r="C4" s="21">
-        <v>0.36</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="D4" s="21">
         <v>0.6</v>
@@ -5096,7 +5089,7 @@
         <v>2067.7222780888146</v>
       </c>
       <c r="C5" s="21">
-        <v>0.38651089000000005</v>
+        <v>0.78847954951285837</v>
       </c>
       <c r="D5" s="21">
         <v>0.62170000000000003</v>
@@ -5111,7 +5104,7 @@
         <v>2953.8889686983071</v>
       </c>
       <c r="C6" s="21">
-        <v>0.38254225000000008</v>
+        <v>0.78644770964127042</v>
       </c>
       <c r="D6" s="21">
         <v>0.61850000000000005</v>
@@ -5126,7 +5119,7 @@
         <v>4219.8413838547249</v>
       </c>
       <c r="C7" s="21">
-        <v>0.35164899999999999</v>
+        <v>0.77006493232713824</v>
       </c>
       <c r="D7" s="21">
         <v>0.59299999999999997</v>
@@ -5141,7 +5134,7 @@
         <v>6028.3448340781788</v>
       </c>
       <c r="C8" s="21">
-        <v>0.33524099999999996</v>
+        <v>0.76092049518987193</v>
       </c>
       <c r="D8" s="21">
         <v>0.57899999999999996</v>
@@ -5156,7 +5149,7 @@
         <v>8611.9211915402557</v>
       </c>
       <c r="C9" s="21">
-        <v>0.26936100000000002</v>
+        <v>0.72041654617311501</v>
       </c>
       <c r="D9" s="21">
         <v>0.51900000000000002</v>
@@ -5171,7 +5164,7 @@
         <v>12302.744559343222</v>
       </c>
       <c r="C10" s="21">
-        <v>0.28462224999999997</v>
+        <v>0.73041084329300587</v>
       </c>
       <c r="D10" s="21">
         <v>0.53349999999999997</v>
@@ -5186,7 +5179,7 @@
         <v>17575.349370490319</v>
       </c>
       <c r="C11" s="21">
-        <v>0.33639999999999998</v>
+        <v>0.76157731058639078</v>
       </c>
       <c r="D11" s="21">
         <v>0.57999999999999996</v>
@@ -5201,7 +5194,7 @@
         <v>25107.641957843316</v>
       </c>
       <c r="C12" s="22">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
         <v>0.61</v>
@@ -5221,7 +5214,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5255,8 +5248,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -5272,7 +5264,7 @@
         <v>34.430616282164827</v>
       </c>
       <c r="C3" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D3" s="25">
         <v>0.78500000000000003</v>
@@ -5287,7 +5279,7 @@
         <v>39.575421013982563</v>
       </c>
       <c r="C4" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D4" s="25">
         <v>0.78500000000000003</v>
@@ -5302,7 +5294,7 @@
         <v>45.488989671244326</v>
       </c>
       <c r="C5" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D5" s="25">
         <v>0.78500000000000003</v>
@@ -5317,7 +5309,7 @@
         <v>52.286195024418767</v>
       </c>
       <c r="C6" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D6" s="25">
         <v>0.78500000000000003</v>
@@ -5332,7 +5324,7 @@
         <v>20.033024913570408</v>
       </c>
       <c r="C7" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D7" s="25">
         <v>0.78500000000000003</v>
@@ -5347,7 +5339,7 @@
         <v>69.079396253691058</v>
       </c>
       <c r="C8" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D8" s="25">
         <v>0.78500000000000003</v>
@@ -5362,7 +5354,7 @@
         <v>79.40160488930006</v>
       </c>
       <c r="C9" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D9" s="25">
         <v>0.78500000000000003</v>
@@ -5377,7 +5369,7 @@
         <v>91.266212516436852</v>
       </c>
       <c r="C10" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D10" s="25">
         <v>0.78500000000000003</v>
@@ -5392,7 +5384,7 @@
         <v>104.90369254762857</v>
       </c>
       <c r="C11" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D11" s="25">
         <v>0.78500000000000003</v>
@@ -5407,7 +5399,7 @@
         <v>120.5789569512972</v>
       </c>
       <c r="C12" s="26">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D12" s="26">
         <v>0.78500000000000003</v>
@@ -5428,7 +5420,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="L18" sqref="L18:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,8 +5453,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.31360000000000005</v>
+        <v>0.74833147735478833</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -5478,7 +5469,7 @@
         <v>38.043017182577891</v>
       </c>
       <c r="C3" s="25">
-        <v>0.31360000000000005</v>
+        <v>0.74833147735478833</v>
       </c>
       <c r="D3" s="25">
         <v>0.56000000000000005</v>
@@ -5493,7 +5484,7 @@
         <v>80.246766739175129</v>
       </c>
       <c r="C4" s="25">
-        <v>0.35402499999999998</v>
+        <v>0.77136243102707558</v>
       </c>
       <c r="D4" s="25">
         <v>0.59499999999999997</v>
@@ -5508,7 +5499,7 @@
         <v>118.19476772685371</v>
       </c>
       <c r="C5" s="25">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D5" s="25">
         <v>0.61</v>
@@ -5523,7 +5514,7 @@
         <v>139.21847882617462</v>
       </c>
       <c r="C6" s="25">
-        <v>0.48999999999999994</v>
+        <v>0.83666002653407556</v>
       </c>
       <c r="D6" s="25">
         <v>0.7</v>
@@ -5538,7 +5529,7 @@
         <v>155.26096587806657</v>
       </c>
       <c r="C7" s="25">
-        <v>0.53289999999999993</v>
+        <v>0.8544003745317531</v>
       </c>
       <c r="D7" s="25">
         <v>0.73</v>
@@ -5553,7 +5544,7 @@
         <v>156.95350477559671</v>
       </c>
       <c r="C8" s="25">
-        <v>0.5776</v>
+        <v>0.87177978870813466</v>
       </c>
       <c r="D8" s="25">
         <v>0.76</v>
@@ -5568,7 +5559,7 @@
         <v>169.70553538262996</v>
       </c>
       <c r="C9" s="25">
-        <v>0.53289999999999993</v>
+        <v>0.8544003745317531</v>
       </c>
       <c r="D9" s="25">
         <v>0.73</v>
@@ -5583,7 +5574,7 @@
         <v>171.43697025221709</v>
       </c>
       <c r="C10" s="25">
-        <v>0.47609999999999991</v>
+        <v>0.83066238629180744</v>
       </c>
       <c r="D10" s="25">
         <v>0.69</v>
@@ -5598,7 +5589,7 @@
         <v>176.87229528170275</v>
       </c>
       <c r="C11" s="25">
-        <v>0.48163599999999995</v>
+        <v>0.83306662398634113</v>
       </c>
       <c r="D11" s="25">
         <v>0.69399999999999995</v>
@@ -5613,7 +5604,7 @@
         <v>182.5517650824853</v>
       </c>
       <c r="C12" s="26">
-        <v>0.48999999999999994</v>
+        <v>0.83666002653407556</v>
       </c>
       <c r="D12" s="26">
         <v>0.7</v>
@@ -5633,7 +5624,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,8 +5657,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -5683,7 +5673,7 @@
         <v>110.55713754770203</v>
       </c>
       <c r="C3" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D3" s="25">
         <v>0.78500000000000003</v>
@@ -5698,7 +5688,7 @@
         <v>127.0771695950598</v>
       </c>
       <c r="C4" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D4" s="25">
         <v>0.78500000000000003</v>
@@ -5713,7 +5703,7 @@
         <v>146.06571217822966</v>
       </c>
       <c r="C5" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D5" s="25">
         <v>0.78500000000000003</v>
@@ -5728,7 +5718,7 @@
         <v>167.89162319336742</v>
       </c>
       <c r="C6" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D6" s="25">
         <v>0.78500000000000003</v>
@@ -5743,7 +5733,7 @@
         <v>192.97887723375567</v>
       </c>
       <c r="C7" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D7" s="25">
         <v>0.78500000000000003</v>
@@ -5758,7 +5748,7 @@
         <v>221.81480141810997</v>
       </c>
       <c r="C8" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D8" s="25">
         <v>0.78500000000000003</v>
@@ -5773,7 +5763,7 @@
         <v>254.95954185989652</v>
       </c>
       <c r="C9" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D9" s="25">
         <v>0.78500000000000003</v>
@@ -5788,7 +5778,7 @@
         <v>293.05694466654774</v>
       </c>
       <c r="C10" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D10" s="25">
         <v>0.78500000000000003</v>
@@ -5803,7 +5793,7 @@
         <v>336.84706283511235</v>
       </c>
       <c r="C11" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D11" s="25">
         <v>0.78500000000000003</v>
@@ -5818,7 +5808,7 @@
         <v>387.18053199438202</v>
       </c>
       <c r="C12" s="26">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D12" s="26">
         <v>0.78500000000000003</v>
@@ -5838,7 +5828,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5871,8 +5861,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -5888,7 +5877,7 @@
         <v>177.82355586572021</v>
       </c>
       <c r="C3" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D3" s="25">
         <v>0.78500000000000003</v>
@@ -5903,7 +5892,7 @@
         <v>209.20418337143556</v>
       </c>
       <c r="C4" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D4" s="25">
         <v>0.78500000000000003</v>
@@ -5918,7 +5907,7 @@
         <v>246.12256867227714</v>
       </c>
       <c r="C5" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D5" s="25">
         <v>0.78500000000000003</v>
@@ -5933,7 +5922,7 @@
         <v>289.55596314385548</v>
       </c>
       <c r="C6" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D6" s="25">
         <v>0.78500000000000003</v>
@@ -5948,7 +5937,7 @@
         <v>340.65407428688883</v>
       </c>
       <c r="C7" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D7" s="25">
         <v>0.78500000000000003</v>
@@ -5963,7 +5952,7 @@
         <v>400.7694991610457</v>
       </c>
       <c r="C8" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D8" s="25">
         <v>0.78500000000000003</v>
@@ -5978,7 +5967,7 @@
         <v>471.49352842475969</v>
       </c>
       <c r="C9" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D9" s="25">
         <v>0.78500000000000003</v>
@@ -5993,7 +5982,7 @@
         <v>554.69826873501142</v>
       </c>
       <c r="C10" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D10" s="25">
         <v>0.78500000000000003</v>
@@ -6008,7 +5997,7 @@
         <v>652.58619851177821</v>
       </c>
       <c r="C11" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D11" s="25">
         <v>0.78500000000000003</v>
@@ -6023,7 +6012,7 @@
         <v>767.7484688373861</v>
       </c>
       <c r="C12" s="26">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D12" s="26">
         <v>0.78500000000000003</v>
@@ -6044,7 +6033,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6077,8 +6066,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.68</v>
+        <v>0.37013511046643494</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -6094,7 +6082,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="25">
-        <v>0.68</v>
+        <v>0.37013511046643494</v>
       </c>
       <c r="D3" s="25">
         <v>0.13700000000000001</v>
@@ -6109,7 +6097,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="25">
-        <v>0.68</v>
+        <v>0.37013511046643494</v>
       </c>
       <c r="D4" s="25">
         <v>0.13700000000000001</v>
@@ -6124,7 +6112,7 @@
         <v>300</v>
       </c>
       <c r="C5" s="25">
-        <v>0.68</v>
+        <v>0.37013511046643494</v>
       </c>
       <c r="D5" s="25">
         <v>0.13700000000000001</v>
@@ -6139,7 +6127,7 @@
         <v>400</v>
       </c>
       <c r="C6" s="25">
-        <v>0.68</v>
+        <v>0.37013511046643494</v>
       </c>
       <c r="D6" s="25">
         <v>0.13700000000000001</v>
@@ -6154,7 +6142,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="25">
-        <v>0.68</v>
+        <v>0.57271284253105414</v>
       </c>
       <c r="D7" s="25">
         <v>0.32800000000000001</v>
@@ -6169,7 +6157,7 @@
         <v>980</v>
       </c>
       <c r="C8" s="25">
-        <v>0.68</v>
+        <v>0.57271284253105414</v>
       </c>
       <c r="D8" s="25">
         <v>0.32800000000000001</v>
@@ -6184,7 +6172,7 @@
         <v>1118</v>
       </c>
       <c r="C9" s="25">
-        <v>0.68</v>
+        <v>0.57271284253105414</v>
       </c>
       <c r="D9" s="25">
         <v>0.32800000000000001</v>
@@ -6199,7 +6187,7 @@
         <v>1515</v>
       </c>
       <c r="C10" s="25">
-        <v>0.68</v>
+        <v>0.72456883730947197</v>
       </c>
       <c r="D10" s="25">
         <v>0.52500000000000002</v>
@@ -6214,7 +6202,7 @@
         <v>1800</v>
       </c>
       <c r="C11" s="25">
-        <v>0.68</v>
+        <v>0.54772255750516607</v>
       </c>
       <c r="D11" s="25">
         <v>0.3</v>
@@ -6229,7 +6217,7 @@
         <v>2190</v>
       </c>
       <c r="C12" s="26">
-        <v>0.68</v>
+        <v>0.37013511046643494</v>
       </c>
       <c r="D12" s="26">
         <v>0.13700000000000001</v>
@@ -6250,7 +6238,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6283,8 +6271,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -6300,7 +6287,7 @@
         <v>191.8426310381796</v>
       </c>
       <c r="C3" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D3" s="25">
         <v>0.78500000000000003</v>
@@ -6315,7 +6302,7 @@
         <v>233.954428095341</v>
       </c>
       <c r="C4" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D4" s="25">
         <v>0.78500000000000003</v>
@@ -6330,7 +6317,7 @@
         <v>285.31027816505002</v>
       </c>
       <c r="C5" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D5" s="25">
         <v>0.78500000000000003</v>
@@ -6345,7 +6332,7 @@
         <v>347.93936361591466</v>
       </c>
       <c r="C6" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D6" s="25">
         <v>0.78500000000000003</v>
@@ -6360,7 +6347,7 @@
         <v>424.31629709257885</v>
       </c>
       <c r="C7" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D7" s="25">
         <v>0.78500000000000003</v>
@@ -6375,7 +6362,7 @@
         <v>517.45889889338889</v>
       </c>
       <c r="C8" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D8" s="25">
         <v>0.78500000000000003</v>
@@ -6390,7 +6377,7 @@
         <v>631.04743767486457</v>
       </c>
       <c r="C9" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D9" s="25">
         <v>0.78500000000000003</v>
@@ -6405,7 +6392,7 @@
         <v>769.57004594495686</v>
       </c>
       <c r="C10" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D10" s="25">
         <v>0.78500000000000003</v>
@@ -6420,7 +6407,7 @@
         <v>938.5000560304353</v>
       </c>
       <c r="C11" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D11" s="25">
         <v>0.78500000000000003</v>
@@ -6435,7 +6422,7 @@
         <v>1144.5122634517504</v>
       </c>
       <c r="C12" s="26">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D12" s="26">
         <v>0.78500000000000003</v>
@@ -6455,7 +6442,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6488,8 +6475,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <f>C3</f>
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D2" s="25">
         <f>D3</f>
@@ -6505,7 +6491,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D3" s="25">
         <v>0.78500000000000003</v>
@@ -6520,7 +6506,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D4" s="25">
         <v>0.78500000000000003</v>
@@ -6535,7 +6521,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D5" s="25">
         <v>0.78500000000000003</v>
@@ -6550,7 +6536,7 @@
         <v>300</v>
       </c>
       <c r="C6" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D6" s="25">
         <v>0.78500000000000003</v>
@@ -6565,7 +6551,7 @@
         <v>500</v>
       </c>
       <c r="C7" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D7" s="25">
         <v>0.78500000000000003</v>
@@ -6580,7 +6566,7 @@
         <v>700</v>
       </c>
       <c r="C8" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D8" s="25">
         <v>0.78500000000000003</v>
@@ -6595,7 +6581,7 @@
         <v>900</v>
       </c>
       <c r="C9" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D9" s="25">
         <v>0.78500000000000003</v>
@@ -6610,7 +6596,7 @@
         <v>1100</v>
       </c>
       <c r="C10" s="25">
-        <v>0.61622500000000002</v>
+        <v>0.88600225733346749</v>
       </c>
       <c r="D10" s="25">
         <v>0.78500000000000003</v>
@@ -6625,7 +6611,7 @@
         <v>1323.0184453148931</v>
       </c>
       <c r="C11" s="25">
-        <v>0.47609999999999991</v>
+        <v>0.83066238629180744</v>
       </c>
       <c r="D11" s="25">
         <v>0.69</v>
@@ -6640,7 +6626,7 @@
         <v>1338.5243484781358</v>
       </c>
       <c r="C12" s="26">
-        <v>0.37209999999999999</v>
+        <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="26">
         <v>0.61</v>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arge_\Desktop\Projeler\Kontrol Vanasi Analizleri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\KE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="20" activeTab="26"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -5008,7 +5008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -5213,8 +5213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5321,7 +5321,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="25">
-        <v>20.033024913570408</v>
+        <v>60.1</v>
       </c>
       <c r="C7" s="25">
         <v>0.88600225733346749</v>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\KE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\PK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" activeTab="2"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,14 @@
     <sheet name="Valve_32.0_600_4" sheetId="30" r:id="rId25"/>
     <sheet name="Valve_36.0_600_4" sheetId="31" r:id="rId26"/>
     <sheet name="Valve_40.0_600_4" sheetId="32" r:id="rId27"/>
+    <sheet name="Valve_8.0_600_6" sheetId="34" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
   <si>
     <t>size</t>
   </si>
@@ -157,6 +158,9 @@
   <si>
     <t>Valve_40.0_600_4</t>
   </si>
+  <si>
+    <t>Valve_8.0_600_6</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -323,12 +327,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,6 +438,18 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -707,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,6 +1307,26 @@
       </c>
       <c r="F27" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
+        <v>600</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1290,6 +1357,7 @@
     <hyperlink ref="F26" location="Valve_36.0_600_4!A1" display="Valve_36.0_600_4"/>
     <hyperlink ref="F27" location="Valve_40.0_600_4!A1" display="Valve_40.0_600_4"/>
     <hyperlink ref="F22" location="Valve_24.0_600_4!A1" display="Valve_24.0_600_4"/>
+    <hyperlink ref="F28" location="Valve_8.0_600_6!A1" display="Valve_8.0_600_6!A1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5209,12 +5277,217 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="29">
+        <f>D3</f>
+        <v>0.246923103</v>
+      </c>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.246923103</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>200</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.246923103</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>300</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.246923103</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>500</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.246923103</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.246923103</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1800</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.246923103</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>75</v>
+      </c>
+      <c r="B9" s="21">
+        <v>2027.215606</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.246923103</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>83</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2100.9039480000001</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2500</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\PK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arge_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6712,10 +6712,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6866,45 +6866,60 @@
         <v>80</v>
       </c>
       <c r="B10" s="25">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="C10" s="25">
         <v>0.88600225733346749</v>
       </c>
       <c r="D10" s="25">
-        <v>0.78500000000000003</v>
+        <v>0.64</v>
       </c>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
+        <v>83</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>90</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B12" s="25">
         <v>1323.0184453148931</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C12" s="25">
         <v>0.83066238629180744</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D12" s="25">
         <v>0.69</v>
       </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>100</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B13" s="26">
         <v>1338.5243484781358</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C13" s="26">
         <v>0.78102496759066542</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D13" s="26">
         <v>0.61</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E13" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,48 +5,49 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arge_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\33\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
-    <sheet name="Valve_2.0_600_3" sheetId="2" r:id="rId2"/>
-    <sheet name="Valve_3.0_600_3" sheetId="14" r:id="rId3"/>
-    <sheet name="Valve_4.0_600_3" sheetId="5" r:id="rId4"/>
-    <sheet name="Valve_6.0_600_3" sheetId="15" r:id="rId5"/>
-    <sheet name="Valve_8.0_600_3" sheetId="16" r:id="rId6"/>
-    <sheet name="Valve_8.0_150_3" sheetId="6" r:id="rId7"/>
-    <sheet name="Valve_10.0_600_3" sheetId="17" r:id="rId8"/>
-    <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId9"/>
-    <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId10"/>
-    <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId11"/>
-    <sheet name="Valve_4.0_600_4" sheetId="18" r:id="rId12"/>
-    <sheet name="Valve_6.0_600_4" sheetId="13" r:id="rId13"/>
-    <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId14"/>
-    <sheet name="Valve_8.0_150_4" sheetId="19" r:id="rId15"/>
-    <sheet name="Valve_10.0_600_4" sheetId="20" r:id="rId16"/>
-    <sheet name="Valve_12.0_600_4" sheetId="21" r:id="rId17"/>
-    <sheet name="Valve_14.0_600_4" sheetId="23" r:id="rId18"/>
-    <sheet name="Valve_16.0_600_4" sheetId="24" r:id="rId19"/>
-    <sheet name="Valve_18.0_600_4" sheetId="25" r:id="rId20"/>
-    <sheet name="Valve_20.0_600_4" sheetId="26" r:id="rId21"/>
-    <sheet name="Valve_24.0_600_4" sheetId="27" r:id="rId22"/>
-    <sheet name="Valve_28.0_600_4" sheetId="28" r:id="rId23"/>
-    <sheet name="Valve_30.0_600_4" sheetId="29" r:id="rId24"/>
-    <sheet name="Valve_32.0_600_4" sheetId="30" r:id="rId25"/>
-    <sheet name="Valve_36.0_600_4" sheetId="31" r:id="rId26"/>
-    <sheet name="Valve_40.0_600_4" sheetId="32" r:id="rId27"/>
-    <sheet name="Valve_8.0_600_6" sheetId="34" r:id="rId28"/>
+    <sheet name="Valve_2.0_600_1" sheetId="35" r:id="rId2"/>
+    <sheet name="Valve_2.0_600_3" sheetId="2" r:id="rId3"/>
+    <sheet name="Valve_3.0_600_3" sheetId="14" r:id="rId4"/>
+    <sheet name="Valve_4.0_600_3" sheetId="5" r:id="rId5"/>
+    <sheet name="Valve_6.0_600_3" sheetId="15" r:id="rId6"/>
+    <sheet name="Valve_8.0_600_3" sheetId="16" r:id="rId7"/>
+    <sheet name="Valve_8.0_150_3" sheetId="6" r:id="rId8"/>
+    <sheet name="Valve_10.0_600_3" sheetId="17" r:id="rId9"/>
+    <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId10"/>
+    <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId11"/>
+    <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId12"/>
+    <sheet name="Valve_4.0_600_4" sheetId="18" r:id="rId13"/>
+    <sheet name="Valve_6.0_600_4" sheetId="13" r:id="rId14"/>
+    <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId15"/>
+    <sheet name="Valve_8.0_150_4" sheetId="19" r:id="rId16"/>
+    <sheet name="Valve_10.0_600_4" sheetId="20" r:id="rId17"/>
+    <sheet name="Valve_12.0_600_4" sheetId="21" r:id="rId18"/>
+    <sheet name="Valve_14.0_600_4" sheetId="23" r:id="rId19"/>
+    <sheet name="Valve_16.0_600_4" sheetId="24" r:id="rId20"/>
+    <sheet name="Valve_18.0_600_4" sheetId="25" r:id="rId21"/>
+    <sheet name="Valve_20.0_600_4" sheetId="26" r:id="rId22"/>
+    <sheet name="Valve_24.0_600_4" sheetId="27" r:id="rId23"/>
+    <sheet name="Valve_28.0_600_4" sheetId="28" r:id="rId24"/>
+    <sheet name="Valve_30.0_600_4" sheetId="29" r:id="rId25"/>
+    <sheet name="Valve_32.0_600_4" sheetId="30" r:id="rId26"/>
+    <sheet name="Valve_36.0_600_4" sheetId="31" r:id="rId27"/>
+    <sheet name="Valve_40.0_600_4" sheetId="32" r:id="rId28"/>
+    <sheet name="Valve_8.0_600_6" sheetId="34" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="39">
   <si>
     <t>size</t>
   </si>
@@ -160,6 +161,9 @@
   </si>
   <si>
     <t>Valve_8.0_600_6</t>
+  </si>
+  <si>
+    <t>Valve_2.0_600_1</t>
   </si>
 </sst>
 </file>
@@ -363,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,6 +454,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J19:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,28 +803,27 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="31">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="31">
         <v>600</v>
       </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>600</v>
@@ -820,18 +832,18 @@
         <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>600</v>
@@ -843,15 +855,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -863,15 +875,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>600</v>
@@ -883,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -894,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -906,15 +918,15 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -923,15 +935,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>600</v>
@@ -943,15 +955,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>600</v>
@@ -963,15 +975,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>600</v>
@@ -983,35 +995,35 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>600</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
         <v>600</v>
@@ -1023,15 +1035,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>600</v>
@@ -1043,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -1066,15 +1078,15 @@
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
@@ -1086,12 +1098,12 @@
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
         <v>600</v>
@@ -1106,12 +1118,12 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2">
         <v>600</v>
@@ -1126,12 +1138,12 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>600</v>
@@ -1146,12 +1158,12 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>600</v>
@@ -1166,12 +1178,12 @@
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
         <v>600</v>
@@ -1186,12 +1198,12 @@
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>600</v>
@@ -1206,12 +1218,12 @@
         <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>600</v>
@@ -1226,12 +1238,12 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
         <v>600</v>
@@ -1246,12 +1258,12 @@
         <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
         <v>600</v>
@@ -1266,12 +1278,12 @@
         <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
         <v>600</v>
@@ -1286,12 +1298,12 @@
         <v>8</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2">
         <v>600</v>
@@ -1306,18 +1318,18 @@
         <v>8</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
         <v>600</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1326,44 +1338,284 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>600</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" location="Valve_2.0_600_3!A1" display="Valve_2.0_600_3"/>
-    <hyperlink ref="F4" location="Valve_4.0_600_3!A1" display="Valve_4.0_600_3"/>
-    <hyperlink ref="F7" location="Valve_8.0_150_3!A1" display="Valve_8.0_150_3"/>
-    <hyperlink ref="F9" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
-    <hyperlink ref="F10" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
-    <hyperlink ref="F11" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
-    <hyperlink ref="F14" location="Valve_8.0_600_4!A1" display="Valve_8.0_600_4"/>
-    <hyperlink ref="F13" location="Valve_6.0_600_4!A1" display="Valve_6.0_600_4"/>
-    <hyperlink ref="F3" location="Valve_3.0_600_3!A1" display="Valve_3.0_600_3"/>
-    <hyperlink ref="F5" location="Valve_6.0_600_3!A1" display="Valve_6.0_600_3"/>
-    <hyperlink ref="F6" location="Valve_8.0_600_3!A1" display="Valve_8.0_600_3"/>
-    <hyperlink ref="F8" location="Valve_10.0_600_3!A1" display="Valve_10.0_600_3"/>
-    <hyperlink ref="F12" location="Valve_4.0_600_4!A1" display="Valve_4.0_600_4"/>
-    <hyperlink ref="F15" location="Valve_8.0_150_4!A1" display="Valve_8.0_150_4"/>
-    <hyperlink ref="F16" location="Valve_10.0_600_4!A1" display="Valve_10.0_600_4"/>
-    <hyperlink ref="F17" location="Valve_12.0_600_4!A1" display="Valve_12.0_600_4"/>
-    <hyperlink ref="F18" location="Valve_14.0_600_4!A1" display="Valve_14.0_600_4"/>
-    <hyperlink ref="F19" location="Valve_16.0_600_4!A1" display="Valve_16.0_600_4"/>
-    <hyperlink ref="F20" location="Valve_18.0_600_4!A1" display="Valve_18.0_600_4"/>
-    <hyperlink ref="F21" location="Valve_20.0_600_4!A1" display="Valve_20.0_600_4"/>
-    <hyperlink ref="F23" location="Valve_28.0_600_4!A1" display="Valve_28.0_600_4"/>
-    <hyperlink ref="F24" location="Valve_30.0_600_4!A1" display="Valve_30.0_600_4"/>
-    <hyperlink ref="F25" location="Valve_32.0_600_4!A1" display="Valve_32.0_600_4"/>
-    <hyperlink ref="F26" location="Valve_36.0_600_4!A1" display="Valve_36.0_600_4"/>
-    <hyperlink ref="F27" location="Valve_40.0_600_4!A1" display="Valve_40.0_600_4"/>
-    <hyperlink ref="F22" location="Valve_24.0_600_4!A1" display="Valve_24.0_600_4"/>
-    <hyperlink ref="F28" location="Valve_8.0_600_6!A1" display="Valve_8.0_600_6!A1"/>
+    <hyperlink ref="F3" location="Valve_2.0_600_3!A1" display="Valve_2.0_600_3"/>
+    <hyperlink ref="F5" location="Valve_4.0_600_3!A1" display="Valve_4.0_600_3"/>
+    <hyperlink ref="F8" location="Valve_8.0_150_3!A1" display="Valve_8.0_150_3"/>
+    <hyperlink ref="F10" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
+    <hyperlink ref="F11" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
+    <hyperlink ref="F12" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
+    <hyperlink ref="F15" location="Valve_8.0_600_4!A1" display="Valve_8.0_600_4"/>
+    <hyperlink ref="F14" location="Valve_6.0_600_4!A1" display="Valve_6.0_600_4"/>
+    <hyperlink ref="F4" location="Valve_3.0_600_3!A1" display="Valve_3.0_600_3"/>
+    <hyperlink ref="F6" location="Valve_6.0_600_3!A1" display="Valve_6.0_600_3"/>
+    <hyperlink ref="F7" location="Valve_8.0_600_3!A1" display="Valve_8.0_600_3"/>
+    <hyperlink ref="F9" location="Valve_10.0_600_3!A1" display="Valve_10.0_600_3"/>
+    <hyperlink ref="F13" location="Valve_4.0_600_4!A1" display="Valve_4.0_600_4"/>
+    <hyperlink ref="F16" location="Valve_8.0_150_4!A1" display="Valve_8.0_150_4"/>
+    <hyperlink ref="F17" location="Valve_10.0_600_4!A1" display="Valve_10.0_600_4"/>
+    <hyperlink ref="F18" location="Valve_12.0_600_4!A1" display="Valve_12.0_600_4"/>
+    <hyperlink ref="F19" location="Valve_14.0_600_4!A1" display="Valve_14.0_600_4"/>
+    <hyperlink ref="F20" location="Valve_16.0_600_4!A1" display="Valve_16.0_600_4"/>
+    <hyperlink ref="F21" location="Valve_18.0_600_4!A1" display="Valve_18.0_600_4"/>
+    <hyperlink ref="F22" location="Valve_20.0_600_4!A1" display="Valve_20.0_600_4"/>
+    <hyperlink ref="F24" location="Valve_28.0_600_4!A1" display="Valve_28.0_600_4"/>
+    <hyperlink ref="F25" location="Valve_30.0_600_4!A1" display="Valve_30.0_600_4"/>
+    <hyperlink ref="F26" location="Valve_32.0_600_4!A1" display="Valve_32.0_600_4"/>
+    <hyperlink ref="F27" location="Valve_36.0_600_4!A1" display="Valve_36.0_600_4"/>
+    <hyperlink ref="F28" location="Valve_40.0_600_4!A1" display="Valve_40.0_600_4"/>
+    <hyperlink ref="F23" location="Valve_24.0_600_4!A1" display="Valve_24.0_600_4"/>
+    <hyperlink ref="F29" location="Valve_8.0_600_6!A1" display="Valve_8.0_600_6!A1"/>
+    <hyperlink ref="F2" location="Valve_2.0_600_1!A1" display="Valve_2.0_600_1!A1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25">
+        <v>50</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="25">
+        <v>100</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25">
+        <v>200</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>40</v>
+      </c>
+      <c r="B6" s="25">
+        <v>300</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>50</v>
+      </c>
+      <c r="B7" s="25">
+        <v>500</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="25">
+        <v>700</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25">
+        <v>900</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>80</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.64</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>83</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>90</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1323.0184453148931</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.83066238629180744</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>100</v>
+      </c>
+      <c r="B13" s="26">
+        <v>1338.5243484781358</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.78102496759066542</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0.61</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1567,7 +1819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1771,7 +2023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1975,7 +2227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2179,7 +2431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2384,7 +2636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2589,7 +2841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2794,7 +3046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2999,7 +3251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3204,7 +3456,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25">
+        <v>10</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="25">
+        <v>15</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25">
+        <v>20</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>40</v>
+      </c>
+      <c r="B6" s="25">
+        <v>30</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>50</v>
+      </c>
+      <c r="B7" s="25">
+        <v>40</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="25">
+        <v>50</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25">
+        <v>60</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>80</v>
+      </c>
+      <c r="B10" s="25">
+        <v>70</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>90</v>
+      </c>
+      <c r="B11" s="25">
+        <v>75</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>100</v>
+      </c>
+      <c r="B12" s="26">
+        <v>80</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3409,213 +3864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="15.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0.73143694191638975</v>
-      </c>
-      <c r="D2" s="25">
-        <f>D3</f>
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25">
-        <v>13.31202233912504</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0.73143694191638975</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>20</v>
-      </c>
-      <c r="B4" s="25">
-        <v>32.692258744082537</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.80932070281193225</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>30</v>
-      </c>
-      <c r="B5" s="25">
-        <v>35.413745781315342</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0.78740078740118113</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0.62</v>
-      </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>40</v>
-      </c>
-      <c r="B6" s="25">
-        <v>38.501103306692336</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.78740078740118113</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>50</v>
-      </c>
-      <c r="B7" s="25">
-        <v>42.26830779705768</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>60</v>
-      </c>
-      <c r="B8" s="25">
-        <v>43.230829971221965</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>70</v>
-      </c>
-      <c r="B9" s="25">
-        <v>44.654446769820602</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.84557672626438818</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>80</v>
-      </c>
-      <c r="B10" s="25">
-        <v>44.719984309519162</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.84852813742385702</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.72</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>90</v>
-      </c>
-      <c r="B11" s="25">
-        <v>46.670236841657392</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.79624116949577528</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>100</v>
-      </c>
-      <c r="B12" s="26">
-        <v>48.040070456780072</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0.79686887252546135</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="E12" s="13"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3820,7 +4069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4025,7 +4274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4230,7 +4479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4435,7 +4684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4625,222 +4874,6 @@
         <v>14899.753605846723</v>
       </c>
       <c r="C12" s="22">
-        <v>0.78102496759066542</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0.61</v>
-      </c>
-      <c r="E12" s="20"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <f>SQRT(D2)</f>
-        <v>0.7745966692414834</v>
-      </c>
-      <c r="D2" s="25">
-        <f>D3</f>
-        <v>0.6</v>
-      </c>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>10</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="25">
-        <f t="shared" ref="C3:C12" si="0">SQRT(D3)</f>
-        <v>0.7745966692414834</v>
-      </c>
-      <c r="D3" s="25">
-        <f>D4</f>
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>25</v>
-      </c>
-      <c r="B4" s="21">
-        <v>965.52863727154875</v>
-      </c>
-      <c r="C4" s="21">
-        <f t="shared" si="0"/>
-        <v>0.7745966692414834</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>30</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1379.3266246736412</v>
-      </c>
-      <c r="C5" s="21">
-        <f t="shared" si="0"/>
-        <v>0.78847954951285837</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>40</v>
-      </c>
-      <c r="B6" s="21">
-        <v>1970.4666066766304</v>
-      </c>
-      <c r="C6" s="21">
-        <f t="shared" si="0"/>
-        <v>0.78644770964127042</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0.61850000000000005</v>
-      </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>50</v>
-      </c>
-      <c r="B7" s="21">
-        <v>2814.9522952523293</v>
-      </c>
-      <c r="C7" s="21">
-        <f t="shared" si="0"/>
-        <v>0.77006493232713824</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>60</v>
-      </c>
-      <c r="B8" s="21">
-        <v>4021.3604217890424</v>
-      </c>
-      <c r="C8" s="21">
-        <f t="shared" si="0"/>
-        <v>0.76092049518987193</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>70</v>
-      </c>
-      <c r="B9" s="21">
-        <v>5744.8006025557752</v>
-      </c>
-      <c r="C9" s="21">
-        <f t="shared" si="0"/>
-        <v>0.72041654617311501</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>80</v>
-      </c>
-      <c r="B10" s="21">
-        <v>8206.8580036511084</v>
-      </c>
-      <c r="C10" s="21">
-        <f t="shared" si="0"/>
-        <v>0.73041084329300587</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>90</v>
-      </c>
-      <c r="B11" s="21">
-        <v>11724.082862358726</v>
-      </c>
-      <c r="C11" s="21">
-        <f t="shared" si="0"/>
-        <v>0.76157731058639078</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>100</v>
-      </c>
-      <c r="B12" s="22">
-        <v>16748.689803369609</v>
-      </c>
-      <c r="C12" s="22">
-        <f t="shared" si="0"/>
         <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
@@ -4925,7 +4958,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="21">
-        <v>1267.1728209115151</v>
+        <v>965.52863727154875</v>
       </c>
       <c r="C4" s="21">
         <f t="shared" si="0"/>
@@ -4941,7 +4974,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="21">
-        <v>1810.2468870164503</v>
+        <v>1379.3266246736412</v>
       </c>
       <c r="C5" s="21">
         <f t="shared" si="0"/>
@@ -4957,7 +4990,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="21">
-        <v>2586.066981452072</v>
+        <v>1970.4666066766304</v>
       </c>
       <c r="C6" s="21">
         <f t="shared" si="0"/>
@@ -4973,7 +5006,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="21">
-        <v>3694.3814020743889</v>
+        <v>2814.9522952523293</v>
       </c>
       <c r="C7" s="21">
         <f t="shared" si="0"/>
@@ -4989,7 +5022,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="21">
-        <v>5277.6877172491277</v>
+        <v>4021.3604217890424</v>
       </c>
       <c r="C8" s="21">
         <f t="shared" si="0"/>
@@ -5005,7 +5038,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="21">
-        <v>7539.553881784469</v>
+        <v>5744.8006025557752</v>
       </c>
       <c r="C9" s="21">
         <f t="shared" si="0"/>
@@ -5021,7 +5054,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="21">
-        <v>10770.7912596921</v>
+        <v>8206.8580036511084</v>
       </c>
       <c r="C10" s="21">
         <f t="shared" si="0"/>
@@ -5037,7 +5070,7 @@
         <v>90</v>
       </c>
       <c r="B11" s="21">
-        <v>15386.844656703001</v>
+        <v>11724.082862358726</v>
       </c>
       <c r="C11" s="21">
         <f t="shared" si="0"/>
@@ -5053,7 +5086,7 @@
         <v>100</v>
       </c>
       <c r="B12" s="22">
-        <v>21981.206652432858</v>
+        <v>16748.689803369609</v>
       </c>
       <c r="C12" s="22">
         <f t="shared" si="0"/>
@@ -5073,6 +5106,222 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <f>SQRT(D2)</f>
+        <v>0.7745966692414834</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
+        <f t="shared" ref="C3:C12" si="0">SQRT(D3)</f>
+        <v>0.7745966692414834</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1267.1728209115151</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.7745966692414834</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1810.2468870164503</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.78847954951285837</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2586.066981452072</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.78644770964127042</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>3694.3814020743889</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>0.77006493232713824</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>5277.6877172491277</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.76092049518987193</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>7539.553881784469</v>
+      </c>
+      <c r="C9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.72041654617311501</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>10770.7912596921</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.73041084329300587</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>15386.844656703001</v>
+      </c>
+      <c r="C11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.76157731058639078</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>21981.206652432858</v>
+      </c>
+      <c r="C12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.78102496759066542</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5277,7 +5526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5483,6 +5732,212 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.73143694191638975</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25">
+        <v>13.31202233912504</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.73143694191638975</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="25">
+        <v>32.692258744082537</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.80932070281193225</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25">
+        <v>35.413745781315342</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.78740078740118113</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.62</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>40</v>
+      </c>
+      <c r="B6" s="25">
+        <v>38.501103306692336</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.78740078740118113</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>50</v>
+      </c>
+      <c r="B7" s="25">
+        <v>42.26830779705768</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="25">
+        <v>43.230829971221965</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25">
+        <v>44.654446769820602</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.84557672626438818</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>80</v>
+      </c>
+      <c r="B10" s="25">
+        <v>44.719984309519162</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.84852813742385702</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.72</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>90</v>
+      </c>
+      <c r="B11" s="25">
+        <v>46.670236841657392</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.79624116949577528</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>100</v>
+      </c>
+      <c r="B12" s="26">
+        <v>48.040070456780072</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.79686887252546135</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5688,7 +6143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5892,7 +6347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6096,7 +6551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6301,7 +6756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6506,7 +6961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6708,223 +7163,4 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D2" s="25">
-        <f>D3</f>
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25">
-        <v>50</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>20</v>
-      </c>
-      <c r="B4" s="25">
-        <v>100</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>30</v>
-      </c>
-      <c r="B5" s="25">
-        <v>200</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>40</v>
-      </c>
-      <c r="B6" s="25">
-        <v>300</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>50</v>
-      </c>
-      <c r="B7" s="25">
-        <v>500</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>60</v>
-      </c>
-      <c r="B8" s="25">
-        <v>700</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>70</v>
-      </c>
-      <c r="B9" s="25">
-        <v>900</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>80</v>
-      </c>
-      <c r="B10" s="25">
-        <v>1200</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.64</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>83</v>
-      </c>
-      <c r="B11" s="25">
-        <v>1300</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>90</v>
-      </c>
-      <c r="B12" s="25">
-        <v>1323.0184453148931</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0.83066238629180744</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0.69</v>
-      </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>100</v>
-      </c>
-      <c r="B13" s="26">
-        <v>1338.5243484781358</v>
-      </c>
-      <c r="C13" s="26">
-        <v>0.78102496759066542</v>
-      </c>
-      <c r="D13" s="26">
-        <v>0.61</v>
-      </c>
-      <c r="E13" s="18"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\33\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\8I\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -769,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J19:J20"/>
     </sheetView>
   </sheetViews>
@@ -3460,7 +3460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3496,7 +3498,7 @@
         <v>0.85</v>
       </c>
       <c r="D2" s="25">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -3511,7 +3513,7 @@
         <v>0.85</v>
       </c>
       <c r="D3" s="25">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -3526,7 +3528,7 @@
         <v>0.85</v>
       </c>
       <c r="D4" s="25">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -3541,7 +3543,7 @@
         <v>0.85</v>
       </c>
       <c r="D5" s="25">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -3556,7 +3558,7 @@
         <v>0.85</v>
       </c>
       <c r="D6" s="25">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -3571,7 +3573,7 @@
         <v>0.85</v>
       </c>
       <c r="D7" s="25">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -3586,7 +3588,7 @@
         <v>0.85</v>
       </c>
       <c r="D8" s="25">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -3601,7 +3603,7 @@
         <v>0.85</v>
       </c>
       <c r="D9" s="25">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -3616,7 +3618,7 @@
         <v>0.85</v>
       </c>
       <c r="D10" s="25">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -3631,7 +3633,7 @@
         <v>0.85</v>
       </c>
       <c r="D11" s="25">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -3646,7 +3648,7 @@
         <v>0.85</v>
       </c>
       <c r="D12" s="26">
-        <v>0.6</v>
+        <v>0.61888888888888804</v>
       </c>
       <c r="E12" s="13"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\8I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\FY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3461,7 +3461,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,7 +3498,7 @@
         <v>0.85</v>
       </c>
       <c r="D2" s="25">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -3513,7 +3513,7 @@
         <v>0.85</v>
       </c>
       <c r="D3" s="25">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -3528,7 +3528,7 @@
         <v>0.85</v>
       </c>
       <c r="D4" s="25">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -3543,7 +3543,7 @@
         <v>0.85</v>
       </c>
       <c r="D5" s="25">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -3558,7 +3558,7 @@
         <v>0.85</v>
       </c>
       <c r="D6" s="25">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -3573,7 +3573,7 @@
         <v>0.85</v>
       </c>
       <c r="D7" s="25">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -3588,7 +3588,7 @@
         <v>0.85</v>
       </c>
       <c r="D8" s="25">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -3603,7 +3603,7 @@
         <v>0.85</v>
       </c>
       <c r="D9" s="25">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -3618,7 +3618,7 @@
         <v>0.85</v>
       </c>
       <c r="D10" s="25">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -3633,7 +3633,7 @@
         <v>0.85</v>
       </c>
       <c r="D11" s="25">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -3648,7 +3648,7 @@
         <v>0.85</v>
       </c>
       <c r="D12" s="26">
-        <v>0.61888888888888804</v>
+        <v>0.6</v>
       </c>
       <c r="E12" s="13"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\FY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\NA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3461,7 +3461,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,7 +3498,7 @@
         <v>0.85</v>
       </c>
       <c r="D2" s="25">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -3507,13 +3507,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="25">
         <v>0.85</v>
       </c>
       <c r="D3" s="25">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -3522,13 +3522,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="25">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C4" s="25">
         <v>0.85</v>
       </c>
       <c r="D4" s="25">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -3537,13 +3537,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="25">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C5" s="25">
         <v>0.85</v>
       </c>
       <c r="D5" s="25">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -3552,13 +3552,13 @@
         <v>40</v>
       </c>
       <c r="B6" s="25">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C6" s="25">
         <v>0.85</v>
       </c>
       <c r="D6" s="25">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -3567,13 +3567,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="25">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C7" s="25">
         <v>0.85</v>
       </c>
       <c r="D7" s="25">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -3582,13 +3582,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="25">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C8" s="25">
         <v>0.85</v>
       </c>
       <c r="D8" s="25">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -3597,13 +3597,13 @@
         <v>70</v>
       </c>
       <c r="B9" s="25">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="C9" s="25">
         <v>0.85</v>
       </c>
       <c r="D9" s="25">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -3612,13 +3612,13 @@
         <v>80</v>
       </c>
       <c r="B10" s="25">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="C10" s="25">
         <v>0.85</v>
       </c>
       <c r="D10" s="25">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -3627,13 +3627,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="25">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="C11" s="25">
         <v>0.85</v>
       </c>
       <c r="D11" s="25">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -3642,13 +3642,13 @@
         <v>100</v>
       </c>
       <c r="B12" s="26">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="C12" s="26">
         <v>0.85</v>
       </c>
       <c r="D12" s="26">
-        <v>0.6</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E12" s="13"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,49 +5,50 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\NA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" activeTab="1"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
     <sheet name="Valve_2.0_600_1" sheetId="35" r:id="rId2"/>
-    <sheet name="Valve_2.0_600_3" sheetId="2" r:id="rId3"/>
-    <sheet name="Valve_3.0_600_3" sheetId="14" r:id="rId4"/>
-    <sheet name="Valve_4.0_600_3" sheetId="5" r:id="rId5"/>
-    <sheet name="Valve_6.0_600_3" sheetId="15" r:id="rId6"/>
-    <sheet name="Valve_8.0_600_3" sheetId="16" r:id="rId7"/>
-    <sheet name="Valve_8.0_150_3" sheetId="6" r:id="rId8"/>
-    <sheet name="Valve_10.0_600_3" sheetId="17" r:id="rId9"/>
-    <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId10"/>
-    <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId11"/>
-    <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId12"/>
-    <sheet name="Valve_4.0_600_4" sheetId="18" r:id="rId13"/>
-    <sheet name="Valve_6.0_600_4" sheetId="13" r:id="rId14"/>
-    <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId15"/>
-    <sheet name="Valve_8.0_150_4" sheetId="19" r:id="rId16"/>
-    <sheet name="Valve_10.0_600_4" sheetId="20" r:id="rId17"/>
-    <sheet name="Valve_12.0_600_4" sheetId="21" r:id="rId18"/>
-    <sheet name="Valve_14.0_600_4" sheetId="23" r:id="rId19"/>
-    <sheet name="Valve_16.0_600_4" sheetId="24" r:id="rId20"/>
-    <sheet name="Valve_18.0_600_4" sheetId="25" r:id="rId21"/>
-    <sheet name="Valve_20.0_600_4" sheetId="26" r:id="rId22"/>
-    <sheet name="Valve_24.0_600_4" sheetId="27" r:id="rId23"/>
-    <sheet name="Valve_28.0_600_4" sheetId="28" r:id="rId24"/>
-    <sheet name="Valve_30.0_600_4" sheetId="29" r:id="rId25"/>
-    <sheet name="Valve_32.0_600_4" sheetId="30" r:id="rId26"/>
-    <sheet name="Valve_36.0_600_4" sheetId="31" r:id="rId27"/>
-    <sheet name="Valve_40.0_600_4" sheetId="32" r:id="rId28"/>
-    <sheet name="Valve_8.0_600_6" sheetId="34" r:id="rId29"/>
+    <sheet name="Valve_4.0_600_1" sheetId="36" r:id="rId3"/>
+    <sheet name="Valve_2.0_600_3" sheetId="2" r:id="rId4"/>
+    <sheet name="Valve_3.0_600_3" sheetId="14" r:id="rId5"/>
+    <sheet name="Valve_4.0_600_3" sheetId="5" r:id="rId6"/>
+    <sheet name="Valve_6.0_600_3" sheetId="15" r:id="rId7"/>
+    <sheet name="Valve_8.0_600_3" sheetId="16" r:id="rId8"/>
+    <sheet name="Valve_8.0_150_3" sheetId="6" r:id="rId9"/>
+    <sheet name="Valve_10.0_600_3" sheetId="17" r:id="rId10"/>
+    <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId11"/>
+    <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId12"/>
+    <sheet name="Valve_20.0_600_3" sheetId="9" r:id="rId13"/>
+    <sheet name="Valve_4.0_600_4" sheetId="18" r:id="rId14"/>
+    <sheet name="Valve_6.0_600_4" sheetId="13" r:id="rId15"/>
+    <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId16"/>
+    <sheet name="Valve_8.0_150_4" sheetId="19" r:id="rId17"/>
+    <sheet name="Valve_10.0_600_4" sheetId="20" r:id="rId18"/>
+    <sheet name="Valve_12.0_600_4" sheetId="21" r:id="rId19"/>
+    <sheet name="Valve_14.0_600_4" sheetId="23" r:id="rId20"/>
+    <sheet name="Valve_16.0_600_4" sheetId="24" r:id="rId21"/>
+    <sheet name="Valve_18.0_600_4" sheetId="25" r:id="rId22"/>
+    <sheet name="Valve_20.0_600_4" sheetId="26" r:id="rId23"/>
+    <sheet name="Valve_24.0_600_4" sheetId="27" r:id="rId24"/>
+    <sheet name="Valve_28.0_600_4" sheetId="28" r:id="rId25"/>
+    <sheet name="Valve_30.0_600_4" sheetId="29" r:id="rId26"/>
+    <sheet name="Valve_32.0_600_4" sheetId="30" r:id="rId27"/>
+    <sheet name="Valve_36.0_600_4" sheetId="31" r:id="rId28"/>
+    <sheet name="Valve_40.0_600_4" sheetId="32" r:id="rId29"/>
+    <sheet name="Valve_8.0_600_6" sheetId="34" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
   <si>
     <t>size</t>
   </si>
@@ -164,6 +165,9 @@
   </si>
   <si>
     <t>Valve_2.0_600_1</t>
+  </si>
+  <si>
+    <t>Valve_4.0_600_1</t>
   </si>
 </sst>
 </file>
@@ -767,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J19:J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +827,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>600</v>
@@ -832,18 +836,19 @@
         <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>600</v>
@@ -852,18 +857,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -875,15 +880,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>600</v>
@@ -895,15 +900,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -915,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -926,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -938,15 +943,15 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -955,15 +960,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>600</v>
@@ -975,15 +980,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>600</v>
@@ -995,15 +1000,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>600</v>
@@ -1015,35 +1020,35 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
         <v>600</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
         <v>600</v>
@@ -1055,15 +1060,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
         <v>600</v>
@@ -1075,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1086,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
@@ -1098,15 +1103,15 @@
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -1118,12 +1123,12 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2">
         <v>600</v>
@@ -1138,12 +1143,12 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
         <v>600</v>
@@ -1158,12 +1163,12 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>600</v>
@@ -1178,12 +1183,12 @@
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
         <v>600</v>
@@ -1198,12 +1203,12 @@
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
         <v>600</v>
@@ -1218,12 +1223,12 @@
         <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>600</v>
@@ -1238,12 +1243,12 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>600</v>
@@ -1258,12 +1263,12 @@
         <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2">
         <v>600</v>
@@ -1278,12 +1283,12 @@
         <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
         <v>600</v>
@@ -1298,12 +1303,12 @@
         <v>8</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2">
         <v>600</v>
@@ -1318,12 +1323,12 @@
         <v>8</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>600</v>
@@ -1338,18 +1343,18 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2">
         <v>600</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -1358,45 +1363,270 @@
         <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>600</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" location="Valve_2.0_600_3!A1" display="Valve_2.0_600_3"/>
-    <hyperlink ref="F5" location="Valve_4.0_600_3!A1" display="Valve_4.0_600_3"/>
-    <hyperlink ref="F8" location="Valve_8.0_150_3!A1" display="Valve_8.0_150_3"/>
-    <hyperlink ref="F10" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
-    <hyperlink ref="F11" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
-    <hyperlink ref="F12" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
-    <hyperlink ref="F15" location="Valve_8.0_600_4!A1" display="Valve_8.0_600_4"/>
-    <hyperlink ref="F14" location="Valve_6.0_600_4!A1" display="Valve_6.0_600_4"/>
-    <hyperlink ref="F4" location="Valve_3.0_600_3!A1" display="Valve_3.0_600_3"/>
-    <hyperlink ref="F6" location="Valve_6.0_600_3!A1" display="Valve_6.0_600_3"/>
-    <hyperlink ref="F7" location="Valve_8.0_600_3!A1" display="Valve_8.0_600_3"/>
-    <hyperlink ref="F9" location="Valve_10.0_600_3!A1" display="Valve_10.0_600_3"/>
-    <hyperlink ref="F13" location="Valve_4.0_600_4!A1" display="Valve_4.0_600_4"/>
-    <hyperlink ref="F16" location="Valve_8.0_150_4!A1" display="Valve_8.0_150_4"/>
-    <hyperlink ref="F17" location="Valve_10.0_600_4!A1" display="Valve_10.0_600_4"/>
-    <hyperlink ref="F18" location="Valve_12.0_600_4!A1" display="Valve_12.0_600_4"/>
-    <hyperlink ref="F19" location="Valve_14.0_600_4!A1" display="Valve_14.0_600_4"/>
-    <hyperlink ref="F20" location="Valve_16.0_600_4!A1" display="Valve_16.0_600_4"/>
-    <hyperlink ref="F21" location="Valve_18.0_600_4!A1" display="Valve_18.0_600_4"/>
-    <hyperlink ref="F22" location="Valve_20.0_600_4!A1" display="Valve_20.0_600_4"/>
-    <hyperlink ref="F24" location="Valve_28.0_600_4!A1" display="Valve_28.0_600_4"/>
-    <hyperlink ref="F25" location="Valve_30.0_600_4!A1" display="Valve_30.0_600_4"/>
-    <hyperlink ref="F26" location="Valve_32.0_600_4!A1" display="Valve_32.0_600_4"/>
-    <hyperlink ref="F27" location="Valve_36.0_600_4!A1" display="Valve_36.0_600_4"/>
-    <hyperlink ref="F28" location="Valve_40.0_600_4!A1" display="Valve_40.0_600_4"/>
-    <hyperlink ref="F23" location="Valve_24.0_600_4!A1" display="Valve_24.0_600_4"/>
-    <hyperlink ref="F29" location="Valve_8.0_600_6!A1" display="Valve_8.0_600_6!A1"/>
+    <hyperlink ref="F6" location="Valve_4.0_600_3!A1" display="Valve_4.0_600_3"/>
+    <hyperlink ref="F9" location="Valve_8.0_150_3!A1" display="Valve_8.0_150_3"/>
+    <hyperlink ref="F11" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
+    <hyperlink ref="F12" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
+    <hyperlink ref="F13" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
+    <hyperlink ref="F16" location="Valve_8.0_600_4!A1" display="Valve_8.0_600_4"/>
+    <hyperlink ref="F15" location="Valve_6.0_600_4!A1" display="Valve_6.0_600_4"/>
+    <hyperlink ref="F5" location="Valve_3.0_600_3!A1" display="Valve_3.0_600_3"/>
+    <hyperlink ref="F7" location="Valve_6.0_600_3!A1" display="Valve_6.0_600_3"/>
+    <hyperlink ref="F8" location="Valve_8.0_600_3!A1" display="Valve_8.0_600_3"/>
+    <hyperlink ref="F10" location="Valve_10.0_600_3!A1" display="Valve_10.0_600_3"/>
+    <hyperlink ref="F14" location="Valve_4.0_600_4!A1" display="Valve_4.0_600_4"/>
+    <hyperlink ref="F17" location="Valve_8.0_150_4!A1" display="Valve_8.0_150_4"/>
+    <hyperlink ref="F18" location="Valve_10.0_600_4!A1" display="Valve_10.0_600_4"/>
+    <hyperlink ref="F19" location="Valve_12.0_600_4!A1" display="Valve_12.0_600_4"/>
+    <hyperlink ref="F20" location="Valve_14.0_600_4!A1" display="Valve_14.0_600_4"/>
+    <hyperlink ref="F21" location="Valve_16.0_600_4!A1" display="Valve_16.0_600_4"/>
+    <hyperlink ref="F22" location="Valve_18.0_600_4!A1" display="Valve_18.0_600_4"/>
+    <hyperlink ref="F23" location="Valve_20.0_600_4!A1" display="Valve_20.0_600_4"/>
+    <hyperlink ref="F25" location="Valve_28.0_600_4!A1" display="Valve_28.0_600_4"/>
+    <hyperlink ref="F26" location="Valve_30.0_600_4!A1" display="Valve_30.0_600_4"/>
+    <hyperlink ref="F27" location="Valve_32.0_600_4!A1" display="Valve_32.0_600_4"/>
+    <hyperlink ref="F28" location="Valve_36.0_600_4!A1" display="Valve_36.0_600_4"/>
+    <hyperlink ref="F29" location="Valve_40.0_600_4!A1" display="Valve_40.0_600_4"/>
+    <hyperlink ref="F24" location="Valve_24.0_600_4!A1" display="Valve_24.0_600_4"/>
+    <hyperlink ref="F30" location="Valve_8.0_600_6!A1" display="Valve_8.0_600_6!A1"/>
     <hyperlink ref="F2" location="Valve_2.0_600_1!A1" display="Valve_2.0_600_1!A1"/>
+    <hyperlink ref="F4" location="Valve_2.0_600_3!A1" display="Valve_2.0_600_3"/>
+    <hyperlink ref="F3" location="Valve_4.0_600_1!A1" display="Valve_4.0_600_1!A1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25">
+        <v>191.8426310381796</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="25">
+        <v>233.954428095341</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25">
+        <v>285.31027816505002</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>40</v>
+      </c>
+      <c r="B6" s="25">
+        <v>347.93936361591466</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>50</v>
+      </c>
+      <c r="B7" s="25">
+        <v>424.31629709257885</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="25">
+        <v>517.45889889338889</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25">
+        <v>631.04743767486457</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>80</v>
+      </c>
+      <c r="B10" s="25">
+        <v>769.57004594495686</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>90</v>
+      </c>
+      <c r="B11" s="25">
+        <v>938.5000560304353</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>100</v>
+      </c>
+      <c r="B12" s="26">
+        <v>1144.5122634517504</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.88600225733346749</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1615,7 +1845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1819,7 +2049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2023,7 +2253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2227,7 +2457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2431,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2636,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2841,7 +3071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3046,7 +3276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3251,7 +3481,212 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25">
+        <v>20</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="25">
+        <v>30</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25">
+        <v>50</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>40</v>
+      </c>
+      <c r="B6" s="25">
+        <v>90</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>50</v>
+      </c>
+      <c r="B7" s="25">
+        <v>120</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="25">
+        <v>150</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25">
+        <v>180</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>80</v>
+      </c>
+      <c r="B10" s="25">
+        <v>210</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>90</v>
+      </c>
+      <c r="B11" s="25">
+        <v>300</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>100</v>
+      </c>
+      <c r="B12" s="26">
+        <v>320</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3456,212 +3891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="15.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="D2" s="25">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25">
-        <v>20</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>20</v>
-      </c>
-      <c r="B4" s="25">
-        <v>30</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>30</v>
-      </c>
-      <c r="B5" s="25">
-        <v>50</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>40</v>
-      </c>
-      <c r="B6" s="25">
-        <v>90</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>50</v>
-      </c>
-      <c r="B7" s="25">
-        <v>120</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>60</v>
-      </c>
-      <c r="B8" s="25">
-        <v>150</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>70</v>
-      </c>
-      <c r="B9" s="25">
-        <v>180</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>80</v>
-      </c>
-      <c r="B10" s="25">
-        <v>210</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>90</v>
-      </c>
-      <c r="B11" s="25">
-        <v>300</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.85</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>100</v>
-      </c>
-      <c r="B12" s="26">
-        <v>320</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E12" s="13"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3866,7 +4096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4071,7 +4301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4276,7 +4506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4481,7 +4711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4686,7 +4916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4876,222 +5106,6 @@
         <v>14899.753605846723</v>
       </c>
       <c r="C12" s="22">
-        <v>0.78102496759066542</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0.61</v>
-      </c>
-      <c r="E12" s="20"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <f>SQRT(D2)</f>
-        <v>0.7745966692414834</v>
-      </c>
-      <c r="D2" s="25">
-        <f>D3</f>
-        <v>0.6</v>
-      </c>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>10</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="25">
-        <f t="shared" ref="C3:C12" si="0">SQRT(D3)</f>
-        <v>0.7745966692414834</v>
-      </c>
-      <c r="D3" s="25">
-        <f>D4</f>
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>25</v>
-      </c>
-      <c r="B4" s="21">
-        <v>965.52863727154875</v>
-      </c>
-      <c r="C4" s="21">
-        <f t="shared" si="0"/>
-        <v>0.7745966692414834</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>30</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1379.3266246736412</v>
-      </c>
-      <c r="C5" s="21">
-        <f t="shared" si="0"/>
-        <v>0.78847954951285837</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>40</v>
-      </c>
-      <c r="B6" s="21">
-        <v>1970.4666066766304</v>
-      </c>
-      <c r="C6" s="21">
-        <f t="shared" si="0"/>
-        <v>0.78644770964127042</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0.61850000000000005</v>
-      </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>50</v>
-      </c>
-      <c r="B7" s="21">
-        <v>2814.9522952523293</v>
-      </c>
-      <c r="C7" s="21">
-        <f t="shared" si="0"/>
-        <v>0.77006493232713824</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>60</v>
-      </c>
-      <c r="B8" s="21">
-        <v>4021.3604217890424</v>
-      </c>
-      <c r="C8" s="21">
-        <f t="shared" si="0"/>
-        <v>0.76092049518987193</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>70</v>
-      </c>
-      <c r="B9" s="21">
-        <v>5744.8006025557752</v>
-      </c>
-      <c r="C9" s="21">
-        <f t="shared" si="0"/>
-        <v>0.72041654617311501</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>80</v>
-      </c>
-      <c r="B10" s="21">
-        <v>8206.8580036511084</v>
-      </c>
-      <c r="C10" s="21">
-        <f t="shared" si="0"/>
-        <v>0.73041084329300587</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>90</v>
-      </c>
-      <c r="B11" s="21">
-        <v>11724.082862358726</v>
-      </c>
-      <c r="C11" s="21">
-        <f t="shared" si="0"/>
-        <v>0.76157731058639078</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>100</v>
-      </c>
-      <c r="B12" s="22">
-        <v>16748.689803369609</v>
-      </c>
-      <c r="C12" s="22">
-        <f t="shared" si="0"/>
         <v>0.78102496759066542</v>
       </c>
       <c r="D12" s="22">
@@ -5176,7 +5190,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="21">
-        <v>1267.1728209115151</v>
+        <v>965.52863727154875</v>
       </c>
       <c r="C4" s="21">
         <f t="shared" si="0"/>
@@ -5192,7 +5206,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="21">
-        <v>1810.2468870164503</v>
+        <v>1379.3266246736412</v>
       </c>
       <c r="C5" s="21">
         <f t="shared" si="0"/>
@@ -5208,7 +5222,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="21">
-        <v>2586.066981452072</v>
+        <v>1970.4666066766304</v>
       </c>
       <c r="C6" s="21">
         <f t="shared" si="0"/>
@@ -5224,7 +5238,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="21">
-        <v>3694.3814020743889</v>
+        <v>2814.9522952523293</v>
       </c>
       <c r="C7" s="21">
         <f t="shared" si="0"/>
@@ -5240,7 +5254,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="21">
-        <v>5277.6877172491277</v>
+        <v>4021.3604217890424</v>
       </c>
       <c r="C8" s="21">
         <f t="shared" si="0"/>
@@ -5256,7 +5270,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="21">
-        <v>7539.553881784469</v>
+        <v>5744.8006025557752</v>
       </c>
       <c r="C9" s="21">
         <f t="shared" si="0"/>
@@ -5272,7 +5286,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="21">
-        <v>10770.7912596921</v>
+        <v>8206.8580036511084</v>
       </c>
       <c r="C10" s="21">
         <f t="shared" si="0"/>
@@ -5288,7 +5302,7 @@
         <v>90</v>
       </c>
       <c r="B11" s="21">
-        <v>15386.844656703001</v>
+        <v>11724.082862358726</v>
       </c>
       <c r="C11" s="21">
         <f t="shared" si="0"/>
@@ -5304,7 +5318,7 @@
         <v>100</v>
       </c>
       <c r="B12" s="22">
-        <v>21981.206652432858</v>
+        <v>16748.689803369609</v>
       </c>
       <c r="C12" s="22">
         <f t="shared" si="0"/>
@@ -5324,6 +5338,222 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <f>SQRT(D2)</f>
+        <v>0.7745966692414834</v>
+      </c>
+      <c r="D2" s="25">
+        <f>D3</f>
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
+        <f t="shared" ref="C3:C12" si="0">SQRT(D3)</f>
+        <v>0.7745966692414834</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D4</f>
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1267.1728209115151</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.7745966692414834</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1810.2468870164503</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.78847954951285837</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2586.066981452072</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.78644770964127042</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21">
+        <v>3694.3814020743889</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>0.77006493232713824</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>5277.6877172491277</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.76092049518987193</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21">
+        <v>7539.553881784469</v>
+      </c>
+      <c r="C9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.72041654617311501</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21">
+        <v>10770.7912596921</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.73041084329300587</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>90</v>
+      </c>
+      <c r="B11" s="21">
+        <v>15386.844656703001</v>
+      </c>
+      <c r="C11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.76157731058639078</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>21981.206652432858</v>
+      </c>
+      <c r="C12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.78102496759066542</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5528,7 +5758,212 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25">
+        <v>20</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="25">
+        <v>30</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25">
+        <v>50</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>40</v>
+      </c>
+      <c r="B6" s="25">
+        <v>90</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>50</v>
+      </c>
+      <c r="B7" s="25">
+        <v>120</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="25">
+        <v>150</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25">
+        <v>180</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>80</v>
+      </c>
+      <c r="B10" s="25">
+        <v>210</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>90</v>
+      </c>
+      <c r="B11" s="25">
+        <v>300</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>100</v>
+      </c>
+      <c r="B12" s="26">
+        <v>320</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5733,7 +6168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -5939,7 +6374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6145,7 +6580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6349,7 +6784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6553,7 +6988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6758,7 +7193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6961,208 +7396,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D2" s="25">
-        <f>D3</f>
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25">
-        <v>191.8426310381796</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>20</v>
-      </c>
-      <c r="B4" s="25">
-        <v>233.954428095341</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>30</v>
-      </c>
-      <c r="B5" s="25">
-        <v>285.31027816505002</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>40</v>
-      </c>
-      <c r="B6" s="25">
-        <v>347.93936361591466</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>50</v>
-      </c>
-      <c r="B7" s="25">
-        <v>424.31629709257885</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>60</v>
-      </c>
-      <c r="B8" s="25">
-        <v>517.45889889338889</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>70</v>
-      </c>
-      <c r="B9" s="25">
-        <v>631.04743767486457</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>80</v>
-      </c>
-      <c r="B10" s="25">
-        <v>769.57004594495686</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>90</v>
-      </c>
-      <c r="B11" s="25">
-        <v>938.5000560304353</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>100</v>
-      </c>
-      <c r="B12" s="26">
-        <v>1144.5122634517504</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0.88600225733346749</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E12" s="18"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="'Valve List'!A1" display="ValveList"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\GD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\KF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -774,7 +774,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
         <v>600</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\KF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\OZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="27" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -174,8 +174,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -371,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,9 +454,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,6 +465,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -773,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,23 +817,23 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="30">
         <v>2</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>600</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>1</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30">
         <v>2</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -844,7 +854,7 @@
       <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -5967,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6003,11 +6013,11 @@
       <c r="C2" s="28">
         <v>0.5</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="33">
         <f>D3</f>
-        <v>0.246923103</v>
-      </c>
-      <c r="E2" s="30"/>
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -6019,9 +6029,9 @@
       <c r="C3" s="21">
         <v>0.5</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="34">
         <f>D4</f>
-        <v>0.246923103</v>
+        <v>0.3</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -6035,8 +6045,8 @@
       <c r="C4" s="21">
         <v>0.5</v>
       </c>
-      <c r="D4" s="21">
-        <v>0.246923103</v>
+      <c r="D4" s="35">
+        <v>0.3</v>
       </c>
       <c r="E4" s="19"/>
     </row>
@@ -6050,8 +6060,8 @@
       <c r="C5" s="21">
         <v>0.5</v>
       </c>
-      <c r="D5" s="21">
-        <v>0.246923103</v>
+      <c r="D5" s="35">
+        <v>0.28999999999999998</v>
       </c>
       <c r="E5" s="19"/>
     </row>
@@ -6065,8 +6075,8 @@
       <c r="C6" s="21">
         <v>0.5</v>
       </c>
-      <c r="D6" s="21">
-        <v>0.246923103</v>
+      <c r="D6" s="35">
+        <v>0.28000000000000003</v>
       </c>
       <c r="E6" s="19"/>
     </row>
@@ -6080,8 +6090,8 @@
       <c r="C7" s="21">
         <v>0.5</v>
       </c>
-      <c r="D7" s="21">
-        <v>0.246923103</v>
+      <c r="D7" s="35">
+        <v>0.27</v>
       </c>
       <c r="E7" s="19"/>
     </row>
@@ -6095,8 +6105,8 @@
       <c r="C8" s="21">
         <v>0.5</v>
       </c>
-      <c r="D8" s="21">
-        <v>0.246923103</v>
+      <c r="D8" s="35">
+        <v>0.26</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -6110,8 +6120,8 @@
       <c r="C9" s="21">
         <v>0.5</v>
       </c>
-      <c r="D9" s="21">
-        <v>0.246923103</v>
+      <c r="D9" s="35">
+        <v>0.25</v>
       </c>
       <c r="E9" s="19"/>
     </row>
@@ -6125,7 +6135,7 @@
       <c r="C10" s="21">
         <v>0.48</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="35">
         <v>0.22900000000000001</v>
       </c>
       <c r="E10" s="19"/>
@@ -6140,7 +6150,7 @@
       <c r="C11" s="21">
         <v>0.5</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="35">
         <v>0.22900000000000001</v>
       </c>
       <c r="E11" s="19"/>
@@ -6155,7 +6165,7 @@
       <c r="C12" s="22">
         <v>0.5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="36">
         <v>0.22900000000000001</v>
       </c>
       <c r="E12" s="20"/>
@@ -6993,7 +7003,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\OZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\70\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5978,7 +5978,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6121,7 +6121,7 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="35">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E9" s="19"/>
     </row>
@@ -6136,7 +6136,7 @@
         <v>0.48</v>
       </c>
       <c r="D10" s="35">
-        <v>0.22900000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="E10" s="19"/>
     </row>
@@ -6151,7 +6151,7 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="35">
-        <v>0.22900000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="19"/>
     </row>
@@ -6166,7 +6166,7 @@
         <v>0.5</v>
       </c>
       <c r="D12" s="36">
-        <v>0.22900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="E12" s="20"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\70\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\A9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5978,7 +5978,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6151,7 +6151,7 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="35">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="E11" s="19"/>
     </row>
@@ -6166,7 +6166,7 @@
         <v>0.5</v>
       </c>
       <c r="D12" s="36">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="E12" s="20"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\A9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\ZL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5978,7 +5978,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6014,8 +6014,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="33">
-        <f>D3</f>
-        <v>0.3</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E2" s="29"/>
     </row>
@@ -6030,8 +6029,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="34">
-        <f>D4</f>
-        <v>0.3</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -6046,7 +6044,7 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="35">
-        <v>0.3</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E4" s="19"/>
     </row>
@@ -6061,7 +6059,7 @@
         <v>0.5</v>
       </c>
       <c r="D5" s="35">
-        <v>0.28999999999999998</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E5" s="19"/>
     </row>
@@ -6076,7 +6074,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="35">
-        <v>0.28000000000000003</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E6" s="19"/>
     </row>
@@ -6091,7 +6089,7 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="35">
-        <v>0.27</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E7" s="19"/>
     </row>
@@ -6106,7 +6104,7 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="35">
-        <v>0.26</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -6115,13 +6113,13 @@
         <v>75</v>
       </c>
       <c r="B9" s="21">
-        <v>2027.215606</v>
+        <v>2029.458185</v>
       </c>
       <c r="C9" s="21">
         <v>0.5</v>
       </c>
       <c r="D9" s="35">
-        <v>0.26</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E9" s="19"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\ZL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\OF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="27" activeTab="29"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -3493,10 +3493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,7 +3505,7 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
@@ -3522,170 +3522,214 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>0</v>
       </c>
       <c r="B2" s="9">
+        <f t="shared" ref="B2:B11" si="0">G2*1.4</f>
         <v>0</v>
       </c>
       <c r="C2" s="25">
         <v>0.85</v>
       </c>
       <c r="D2" s="25">
-        <v>0.68799999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>10</v>
       </c>
       <c r="B3" s="25">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>18.636831274775055</v>
       </c>
       <c r="C3" s="25">
         <v>0.85</v>
       </c>
       <c r="D3" s="25">
-        <v>0.68799999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="25">
+        <v>13.31202233912504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>20</v>
       </c>
       <c r="B4" s="25">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>45.769162241715549</v>
       </c>
       <c r="C4" s="25">
         <v>0.85</v>
       </c>
       <c r="D4" s="25">
-        <v>0.68799999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="25">
+        <v>32.692258744082537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>30</v>
       </c>
       <c r="B5" s="25">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>49.579244093841474</v>
       </c>
       <c r="C5" s="25">
         <v>0.85</v>
       </c>
       <c r="D5" s="25">
-        <v>0.68799999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="25">
+        <v>35.413745781315342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>40</v>
       </c>
       <c r="B6" s="25">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>53.901544629369269</v>
       </c>
       <c r="C6" s="25">
         <v>0.85</v>
       </c>
       <c r="D6" s="25">
-        <v>0.68799999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="25">
+        <v>38.501103306692336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>50</v>
       </c>
       <c r="B7" s="25">
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>59.175630915880745</v>
       </c>
       <c r="C7" s="25">
         <v>0.85</v>
       </c>
       <c r="D7" s="25">
-        <v>0.68799999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="25">
+        <v>42.26830779705768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>60</v>
       </c>
       <c r="B8" s="25">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>60.523161959710748</v>
       </c>
       <c r="C8" s="25">
         <v>0.85</v>
       </c>
       <c r="D8" s="25">
-        <v>0.68799999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="25">
+        <v>43.230829971221965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>70</v>
       </c>
       <c r="B9" s="25">
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>62.51622547774884</v>
       </c>
       <c r="C9" s="25">
         <v>0.85</v>
       </c>
       <c r="D9" s="25">
-        <v>0.68799999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="25">
+        <v>44.654446769820602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>80</v>
       </c>
       <c r="B10" s="25">
-        <v>210</v>
+        <f t="shared" si="0"/>
+        <v>62.607978033326823</v>
       </c>
       <c r="C10" s="25">
         <v>0.85</v>
       </c>
       <c r="D10" s="25">
-        <v>0.68799999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="25">
+        <v>44.719984309519162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>90</v>
       </c>
       <c r="B11" s="25">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>65.33833157832035</v>
       </c>
       <c r="C11" s="25">
         <v>0.85</v>
       </c>
       <c r="D11" s="25">
-        <v>0.68799999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="25">
+        <v>46.670236841657392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>100</v>
       </c>
       <c r="B12" s="26">
-        <v>320</v>
+        <f>G12*1.4</f>
+        <v>67.256098639492095</v>
       </c>
       <c r="C12" s="26">
         <v>0.85</v>
       </c>
-      <c r="D12" s="26">
-        <v>0.68799999999999994</v>
+      <c r="D12" s="25">
+        <v>0.6</v>
       </c>
       <c r="E12" s="13"/>
+      <c r="G12" s="26">
+        <v>48.040070456780072</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5977,8 +6021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6181,7 +6225,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\OF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\1D\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3493,10 +3493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9">
-        <f t="shared" ref="B2:B11" si="0">G2*1.4</f>
+        <f t="shared" ref="B2:B11" si="0">G2*1.7</f>
         <v>0</v>
       </c>
       <c r="C2" s="25">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B3" s="25">
         <f t="shared" si="0"/>
-        <v>18.636831274775055</v>
+        <v>22.630437976512567</v>
       </c>
       <c r="C3" s="25">
         <v>0.85</v>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B4" s="25">
         <f t="shared" si="0"/>
-        <v>45.769162241715549</v>
+        <v>55.576839864940311</v>
       </c>
       <c r="C4" s="25">
         <v>0.85</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B5" s="25">
         <f t="shared" si="0"/>
-        <v>49.579244093841474</v>
+        <v>60.203367828236082</v>
       </c>
       <c r="C5" s="25">
         <v>0.85</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B6" s="25">
         <f t="shared" si="0"/>
-        <v>53.901544629369269</v>
+        <v>65.451875621376971</v>
       </c>
       <c r="C6" s="25">
         <v>0.85</v>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B7" s="25">
         <f t="shared" si="0"/>
-        <v>59.175630915880745</v>
+        <v>71.856123254998053</v>
       </c>
       <c r="C7" s="25">
         <v>0.85</v>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" si="0"/>
-        <v>60.523161959710748</v>
+        <v>73.492410951077332</v>
       </c>
       <c r="C8" s="25">
         <v>0.85</v>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>62.51622547774884</v>
+        <v>75.912559508695026</v>
       </c>
       <c r="C9" s="25">
         <v>0.85</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>62.607978033326823</v>
+        <v>76.023973326182571</v>
       </c>
       <c r="C10" s="25">
         <v>0.85</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>65.33833157832035</v>
+        <v>79.33940263081756</v>
       </c>
       <c r="C11" s="25">
         <v>0.85</v>
@@ -3717,8 +3717,8 @@
         <v>100</v>
       </c>
       <c r="B12" s="26">
-        <f>G12*1.4</f>
-        <v>67.256098639492095</v>
+        <f>G12*1.7</f>
+        <v>81.668119776526126</v>
       </c>
       <c r="C12" s="26">
         <v>0.85</v>
@@ -3729,6 +3729,12 @@
       <c r="E12" s="13"/>
       <c r="G12" s="26">
         <v>48.040070456780072</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f>70/0.865</f>
+        <v>80.924855491329481</v>
       </c>
     </row>
   </sheetData>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\1D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\X4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
-    <sheet name="Valve_2.0_600_1" sheetId="35" r:id="rId2"/>
+    <sheet name="Valve_2.0_600_1(ParabolicPlug)" sheetId="35" r:id="rId2"/>
     <sheet name="Valve_4.0_600_1" sheetId="36" r:id="rId3"/>
     <sheet name="Valve_2.0_600_3" sheetId="2" r:id="rId4"/>
     <sheet name="Valve_3.0_600_3" sheetId="14" r:id="rId5"/>
@@ -3496,7 +3496,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,14 +3527,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="9">
-        <f t="shared" ref="B2:B11" si="0">G2*1.7</f>
+        <f t="shared" ref="B2:B11" si="0">G2*4</f>
         <v>0</v>
       </c>
       <c r="C2" s="25">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="25">
-        <v>0.6</v>
+        <f>C2*C2</f>
+        <v>0.81</v>
       </c>
       <c r="E2" s="10"/>
       <c r="G2" s="9">
@@ -3547,13 +3548,14 @@
       </c>
       <c r="B3" s="25">
         <f t="shared" si="0"/>
-        <v>22.630437976512567</v>
+        <v>53.248089356500159</v>
       </c>
       <c r="C3" s="25">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D3" s="25">
-        <v>0.6</v>
+        <f t="shared" ref="D3:D12" si="1">C3*C3</f>
+        <v>0.81</v>
       </c>
       <c r="E3" s="10"/>
       <c r="G3" s="25">
@@ -3566,13 +3568,14 @@
       </c>
       <c r="B4" s="25">
         <f t="shared" si="0"/>
-        <v>55.576839864940311</v>
+        <v>130.76903497633015</v>
       </c>
       <c r="C4" s="25">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D4" s="25">
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="E4" s="10"/>
       <c r="G4" s="25">
@@ -3585,13 +3588,14 @@
       </c>
       <c r="B5" s="25">
         <f t="shared" si="0"/>
-        <v>60.203367828236082</v>
+        <v>141.65498312526137</v>
       </c>
       <c r="C5" s="25">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="25">
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" s="25">
@@ -3604,13 +3608,14 @@
       </c>
       <c r="B6" s="25">
         <f t="shared" si="0"/>
-        <v>65.451875621376971</v>
+        <v>154.00441322676934</v>
       </c>
       <c r="C6" s="25">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D6" s="25">
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="E6" s="10"/>
       <c r="G6" s="25">
@@ -3623,13 +3628,14 @@
       </c>
       <c r="B7" s="25">
         <f t="shared" si="0"/>
-        <v>71.856123254998053</v>
+        <v>169.07323118823072</v>
       </c>
       <c r="C7" s="25">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D7" s="25">
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="E7" s="10"/>
       <c r="G7" s="25">
@@ -3642,13 +3648,14 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" si="0"/>
-        <v>73.492410951077332</v>
+        <v>172.92331988488786</v>
       </c>
       <c r="C8" s="25">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D8" s="25">
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="E8" s="10"/>
       <c r="G8" s="25">
@@ -3661,13 +3668,14 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>75.912559508695026</v>
+        <v>178.61778707928241</v>
       </c>
       <c r="C9" s="25">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D9" s="25">
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="E9" s="10"/>
       <c r="G9" s="25">
@@ -3680,13 +3688,14 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>76.023973326182571</v>
+        <v>178.87993723807665</v>
       </c>
       <c r="C10" s="25">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D10" s="25">
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="E10" s="10"/>
       <c r="G10" s="25">
@@ -3699,13 +3708,14 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>79.33940263081756</v>
+        <v>186.68094736662957</v>
       </c>
       <c r="C11" s="25">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D11" s="25">
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" s="25">
@@ -3717,14 +3727,15 @@
         <v>100</v>
       </c>
       <c r="B12" s="26">
-        <f>G12*1.7</f>
-        <v>81.668119776526126</v>
+        <f>G12*4</f>
+        <v>192.16028182712029</v>
       </c>
       <c r="C12" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0.6</v>
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="26">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="E12" s="13"/>
       <c r="G12" s="26">

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\X4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\PI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
-    <sheet name="Valve_2.0_600_1(ParabolicPlug)" sheetId="35" r:id="rId2"/>
+    <sheet name="Valve_2.0_600_1" sheetId="35" r:id="rId2"/>
     <sheet name="Valve_4.0_600_1" sheetId="36" r:id="rId3"/>
     <sheet name="Valve_2.0_600_3" sheetId="2" r:id="rId4"/>
     <sheet name="Valve_3.0_600_3" sheetId="14" r:id="rId5"/>
@@ -3496,7 +3496,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\PI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurkan.duran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" activeTab="1"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -3495,7 +3495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -7266,8 +7266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7379,7 +7379,7 @@
         <v>0.57271284253105414</v>
       </c>
       <c r="D7" s="25">
-        <v>0.32800000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E7" s="17"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -7267,7 +7267,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7424,7 +7424,7 @@
         <v>0.72456883730947197</v>
       </c>
       <c r="D10" s="25">
-        <v>0.52500000000000002</v>
+        <v>0.252</v>
       </c>
       <c r="E10" s="17"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -7267,7 +7267,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7379,7 +7379,7 @@
         <v>0.57271284253105414</v>
       </c>
       <c r="D7" s="25">
-        <v>0.23499999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E7" s="17"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -7267,7 +7267,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7439,7 +7439,7 @@
         <v>0.54772255750516607</v>
       </c>
       <c r="D11" s="25">
-        <v>0.3</v>
+        <v>0.252</v>
       </c>
       <c r="E11" s="17"/>
     </row>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Valve_4.0_600_3" sheetId="5" r:id="rId6"/>
     <sheet name="Valve_6.0_600_3" sheetId="15" r:id="rId7"/>
     <sheet name="Valve_8.0_600_3" sheetId="16" r:id="rId8"/>
-    <sheet name="Valve_8.0_150_3" sheetId="6" r:id="rId9"/>
+    <sheet name="Valve_8.0_150_3(Fisher)" sheetId="6" r:id="rId9"/>
     <sheet name="Valve_10.0_600_3" sheetId="17" r:id="rId10"/>
     <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId11"/>
     <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId12"/>
@@ -113,9 +113,6 @@
     <t>Valve_6.0_600_3</t>
   </si>
   <si>
-    <t>Valve_8.0_150_3</t>
-  </si>
-  <si>
     <t>Valve_10.0_600_3</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   <si>
     <t>Valve_4.0_600_1</t>
   </si>
+  <si>
+    <t>Valve_8.0_150_3(Fisher)</t>
+  </si>
 </sst>
 </file>
 
@@ -190,6 +190,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
     <font>
       <u/>
@@ -783,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="31"/>
     </row>
@@ -852,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="31"/>
     </row>
@@ -973,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -993,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1133,7 +1135,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,7 +1295,7 @@
         <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,13 +1395,13 @@
         <v>8</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" location="Valve_4.0_600_3!A1" display="Valve_4.0_600_3"/>
-    <hyperlink ref="F9" location="Valve_8.0_150_3!A1" display="Valve_8.0_150_3"/>
+    <hyperlink ref="F9" location="'Valve_8.0_150_3(Fisher)'!A1" display="Valve_8.0_150_3(Fisher)"/>
     <hyperlink ref="F11" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
     <hyperlink ref="F12" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
     <hyperlink ref="F13" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
@@ -6448,7 +6450,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="G11:H11"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7266,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="42">
   <si>
     <t>size</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Valve_8.0_150_3(Fisher)</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>(Fisher)</t>
   </si>
 </sst>
 </file>
@@ -783,21 +789,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="27.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,11 +820,14 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>2</v>
       </c>
@@ -832,12 +841,13 @@
       <c r="E2" s="30">
         <v>2</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -853,12 +863,12 @@
       <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -874,11 +884,11 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -894,11 +904,11 @@
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -914,11 +924,11 @@
       <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -934,11 +944,11 @@
       <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -954,11 +964,11 @@
       <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -974,11 +984,14 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -994,11 +1007,11 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -1014,11 +1027,11 @@
       <c r="E11" s="2">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -1034,11 +1047,11 @@
       <c r="E12" s="2">
         <v>16</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>20</v>
       </c>
@@ -1054,11 +1067,11 @@
       <c r="E13" s="2">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -1074,11 +1087,11 @@
       <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -1094,11 +1107,11 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -1114,11 +1127,11 @@
       <c r="E16" s="2">
         <v>8</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -1134,11 +1147,11 @@
       <c r="E17" s="2">
         <v>8</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -1154,11 +1167,11 @@
       <c r="E18" s="2">
         <v>8</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -1174,11 +1187,11 @@
       <c r="E19" s="2">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -1194,11 +1207,11 @@
       <c r="E20" s="2">
         <v>8</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -1214,11 +1227,11 @@
       <c r="E21" s="2">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1234,11 +1247,11 @@
       <c r="E22" s="2">
         <v>8</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1254,11 +1267,11 @@
       <c r="E23" s="2">
         <v>8</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -1274,11 +1287,11 @@
       <c r="E24" s="2">
         <v>8</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>28</v>
       </c>
@@ -1294,11 +1307,11 @@
       <c r="E25" s="2">
         <v>8</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>30</v>
       </c>
@@ -1314,11 +1327,11 @@
       <c r="E26" s="2">
         <v>8</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>32</v>
       </c>
@@ -1334,11 +1347,11 @@
       <c r="E27" s="2">
         <v>8</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>36</v>
       </c>
@@ -1354,11 +1367,11 @@
       <c r="E28" s="2">
         <v>8</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40</v>
       </c>
@@ -1374,11 +1387,11 @@
       <c r="E29" s="2">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8</v>
       </c>
@@ -1394,41 +1407,41 @@
       <c r="E30" s="2">
         <v>8</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F6" location="Valve_4.0_600_3!A1" display="Valve_4.0_600_3"/>
-    <hyperlink ref="F9" location="'Valve_8.0_150_3(Fisher)'!A1" display="Valve_8.0_150_3(Fisher)"/>
-    <hyperlink ref="F11" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
-    <hyperlink ref="F12" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
-    <hyperlink ref="F13" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
-    <hyperlink ref="F16" location="Valve_8.0_600_4!A1" display="Valve_8.0_600_4"/>
-    <hyperlink ref="F15" location="Valve_6.0_600_4!A1" display="Valve_6.0_600_4"/>
-    <hyperlink ref="F5" location="Valve_3.0_600_3!A1" display="Valve_3.0_600_3"/>
-    <hyperlink ref="F7" location="Valve_6.0_600_3!A1" display="Valve_6.0_600_3"/>
-    <hyperlink ref="F8" location="Valve_8.0_600_3!A1" display="Valve_8.0_600_3"/>
-    <hyperlink ref="F10" location="Valve_10.0_600_3!A1" display="Valve_10.0_600_3"/>
-    <hyperlink ref="F14" location="Valve_4.0_600_4!A1" display="Valve_4.0_600_4"/>
-    <hyperlink ref="F17" location="Valve_8.0_150_4!A1" display="Valve_8.0_150_4"/>
-    <hyperlink ref="F18" location="Valve_10.0_600_4!A1" display="Valve_10.0_600_4"/>
-    <hyperlink ref="F19" location="Valve_12.0_600_4!A1" display="Valve_12.0_600_4"/>
-    <hyperlink ref="F20" location="Valve_14.0_600_4!A1" display="Valve_14.0_600_4"/>
-    <hyperlink ref="F21" location="Valve_16.0_600_4!A1" display="Valve_16.0_600_4"/>
-    <hyperlink ref="F22" location="Valve_18.0_600_4!A1" display="Valve_18.0_600_4"/>
-    <hyperlink ref="F23" location="Valve_20.0_600_4!A1" display="Valve_20.0_600_4"/>
-    <hyperlink ref="F25" location="Valve_28.0_600_4!A1" display="Valve_28.0_600_4"/>
-    <hyperlink ref="F26" location="Valve_30.0_600_4!A1" display="Valve_30.0_600_4"/>
-    <hyperlink ref="F27" location="Valve_32.0_600_4!A1" display="Valve_32.0_600_4"/>
-    <hyperlink ref="F28" location="Valve_36.0_600_4!A1" display="Valve_36.0_600_4"/>
-    <hyperlink ref="F29" location="Valve_40.0_600_4!A1" display="Valve_40.0_600_4"/>
-    <hyperlink ref="F24" location="Valve_24.0_600_4!A1" display="Valve_24.0_600_4"/>
-    <hyperlink ref="F30" location="Valve_8.0_600_6!A1" display="Valve_8.0_600_6!A1"/>
-    <hyperlink ref="F2" location="Valve_2.0_600_1!A1" display="Valve_2.0_600_1!A1"/>
-    <hyperlink ref="F4" location="Valve_2.0_600_3!A1" display="Valve_2.0_600_3"/>
-    <hyperlink ref="F3" location="Valve_4.0_600_1!A1" display="Valve_4.0_600_1!A1"/>
+    <hyperlink ref="G6" location="Valve_4.0_600_3!A1" display="Valve_4.0_600_3"/>
+    <hyperlink ref="G9" location="'Valve_8.0_150_3(Fisher)'!A1" display="Valve_8.0_150_3(Fisher)"/>
+    <hyperlink ref="G11" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
+    <hyperlink ref="G12" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
+    <hyperlink ref="G13" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
+    <hyperlink ref="G16" location="Valve_8.0_600_4!A1" display="Valve_8.0_600_4"/>
+    <hyperlink ref="G15" location="Valve_6.0_600_4!A1" display="Valve_6.0_600_4"/>
+    <hyperlink ref="G5" location="Valve_3.0_600_3!A1" display="Valve_3.0_600_3"/>
+    <hyperlink ref="G7" location="Valve_6.0_600_3!A1" display="Valve_6.0_600_3"/>
+    <hyperlink ref="G8" location="Valve_8.0_600_3!A1" display="Valve_8.0_600_3"/>
+    <hyperlink ref="G10" location="Valve_10.0_600_3!A1" display="Valve_10.0_600_3"/>
+    <hyperlink ref="G14" location="Valve_4.0_600_4!A1" display="Valve_4.0_600_4"/>
+    <hyperlink ref="G17" location="Valve_8.0_150_4!A1" display="Valve_8.0_150_4"/>
+    <hyperlink ref="G18" location="Valve_10.0_600_4!A1" display="Valve_10.0_600_4"/>
+    <hyperlink ref="G19" location="Valve_12.0_600_4!A1" display="Valve_12.0_600_4"/>
+    <hyperlink ref="G20" location="Valve_14.0_600_4!A1" display="Valve_14.0_600_4"/>
+    <hyperlink ref="G21" location="Valve_16.0_600_4!A1" display="Valve_16.0_600_4"/>
+    <hyperlink ref="G22" location="Valve_18.0_600_4!A1" display="Valve_18.0_600_4"/>
+    <hyperlink ref="G23" location="Valve_20.0_600_4!A1" display="Valve_20.0_600_4"/>
+    <hyperlink ref="G25" location="Valve_28.0_600_4!A1" display="Valve_28.0_600_4"/>
+    <hyperlink ref="G26" location="Valve_30.0_600_4!A1" display="Valve_30.0_600_4"/>
+    <hyperlink ref="G27" location="Valve_32.0_600_4!A1" display="Valve_32.0_600_4"/>
+    <hyperlink ref="G28" location="Valve_36.0_600_4!A1" display="Valve_36.0_600_4"/>
+    <hyperlink ref="G29" location="Valve_40.0_600_4!A1" display="Valve_40.0_600_4"/>
+    <hyperlink ref="G24" location="Valve_24.0_600_4!A1" display="Valve_24.0_600_4"/>
+    <hyperlink ref="G30" location="Valve_8.0_600_6!A1" display="Valve_8.0_600_6!A1"/>
+    <hyperlink ref="G2" location="Valve_2.0_600_1!A1" display="Valve_2.0_600_1!A1"/>
+    <hyperlink ref="G4" location="Valve_2.0_600_3!A1" display="Valve_2.0_600_3"/>
+    <hyperlink ref="G3" location="Valve_4.0_600_1!A1" display="Valve_4.0_600_1!A1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Valve_4.0_600_3" sheetId="5" r:id="rId6"/>
     <sheet name="Valve_6.0_600_3" sheetId="15" r:id="rId7"/>
     <sheet name="Valve_8.0_600_3" sheetId="16" r:id="rId8"/>
-    <sheet name="Valve_8.0_150_3(Fisher)" sheetId="6" r:id="rId9"/>
+    <sheet name="Valve_8.0_150_3" sheetId="6" r:id="rId9"/>
     <sheet name="Valve_10.0_600_3" sheetId="17" r:id="rId10"/>
     <sheet name="Valve_12.0_600_3" sheetId="7" r:id="rId11"/>
     <sheet name="Valve_16.0_600_3" sheetId="8" r:id="rId12"/>
@@ -28,7 +28,7 @@
     <sheet name="Valve_4.0_600_4" sheetId="18" r:id="rId14"/>
     <sheet name="Valve_6.0_600_4" sheetId="13" r:id="rId15"/>
     <sheet name="Valve_8.0_600_4" sheetId="11" r:id="rId16"/>
-    <sheet name="Valve_8.0_150_4" sheetId="19" r:id="rId17"/>
+    <sheet name="Valve_8.0_600_4(Lineer)" sheetId="19" r:id="rId17"/>
     <sheet name="Valve_10.0_600_4" sheetId="20" r:id="rId18"/>
     <sheet name="Valve_12.0_600_4" sheetId="21" r:id="rId19"/>
     <sheet name="Valve_14.0_600_4" sheetId="23" r:id="rId20"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="43">
   <si>
     <t>size</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Valve_4.0_600_4</t>
   </si>
   <si>
-    <t>Valve_8.0_150_4</t>
-  </si>
-  <si>
     <t>Valve_10.0_600_4</t>
   </si>
   <si>
@@ -167,13 +164,19 @@
     <t>Valve_4.0_600_1</t>
   </si>
   <si>
-    <t>Valve_8.0_150_3(Fisher)</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
-    <t>(Fisher)</t>
+    <t>Valve_8.0_150_3</t>
+  </si>
+  <si>
+    <t>Sample Problem No.2</t>
+  </si>
+  <si>
+    <t>Valve_8.0_600_4(Lineer)'</t>
+  </si>
+  <si>
+    <t>Linear Cage</t>
   </si>
 </sst>
 </file>
@@ -792,14 +795,15 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="2"/>
+    <col min="3" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -820,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -843,7 +847,7 @@
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="31"/>
     </row>
@@ -864,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="31"/>
     </row>
@@ -879,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -985,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>39</v>
@@ -1147,8 +1151,11 @@
       <c r="E17" s="2">
         <v>8</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1225,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1245,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1285,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1345,10 +1352,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1365,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1385,10 +1392,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1408,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G6" location="Valve_4.0_600_3!A1" display="Valve_4.0_600_3"/>
-    <hyperlink ref="G9" location="'Valve_8.0_150_3(Fisher)'!A1" display="Valve_8.0_150_3(Fisher)"/>
+    <hyperlink ref="G9" location="Valve_8.0_150_3!A1" display="Valve_8.0_150_3"/>
     <hyperlink ref="G11" location="Valve_12.0_600_3!A1" display="Valve_12.0_600_3"/>
     <hyperlink ref="G12" location="Valve_16.0_600_3!A1" display="Valve_16.0_600_3"/>
     <hyperlink ref="G13" location="Valve_20.0_600_3!A1" display="Valve_20.0_600_3"/>
@@ -1425,7 +1432,7 @@
     <hyperlink ref="G8" location="Valve_8.0_600_3!A1" display="Valve_8.0_600_3"/>
     <hyperlink ref="G10" location="Valve_10.0_600_3!A1" display="Valve_10.0_600_3"/>
     <hyperlink ref="G14" location="Valve_4.0_600_4!A1" display="Valve_4.0_600_4"/>
-    <hyperlink ref="G17" location="Valve_8.0_150_4!A1" display="Valve_8.0_150_4"/>
+    <hyperlink ref="G17" location="'Valve_8.0_600_4(Lineer)'!A1" display="Valve_8.0_600_4(Lineer)'"/>
     <hyperlink ref="G18" location="Valve_10.0_600_4!A1" display="Valve_10.0_600_4"/>
     <hyperlink ref="G19" location="Valve_12.0_600_4!A1" display="Valve_12.0_600_4"/>
     <hyperlink ref="G20" location="Valve_14.0_600_4!A1" display="Valve_14.0_600_4"/>
@@ -2691,7 +2698,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,9 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="42">
   <si>
     <t>size</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Sample Problem No.2</t>
-  </si>
-  <si>
-    <t>Valve_8.0_600_4(Lineer)'</t>
   </si>
   <si>
     <t>Linear Cage</t>
@@ -794,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,10 +1149,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1432,7 +1429,7 @@
     <hyperlink ref="G8" location="Valve_8.0_600_3!A1" display="Valve_8.0_600_3"/>
     <hyperlink ref="G10" location="Valve_10.0_600_3!A1" display="Valve_10.0_600_3"/>
     <hyperlink ref="G14" location="Valve_4.0_600_4!A1" display="Valve_4.0_600_4"/>
-    <hyperlink ref="G17" location="'Valve_8.0_600_4(Lineer)'!A1" display="Valve_8.0_600_4(Lineer)'"/>
+    <hyperlink ref="G17" location="'Valve_8.0_600_4(Lineer)'!A1" display="Valve_8.0_600_4"/>
     <hyperlink ref="G18" location="Valve_10.0_600_4!A1" display="Valve_10.0_600_4"/>
     <hyperlink ref="G19" location="Valve_12.0_600_4!A1" display="Valve_12.0_600_4"/>
     <hyperlink ref="G20" location="Valve_14.0_600_4!A1" display="Valve_14.0_600_4"/>
@@ -2902,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="3255" yWindow="3255" windowWidth="28800" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -2899,7 +2899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
